--- a/data/hotels_by_city/Dallas/Dallas_shard_620.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_620.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1454 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/16/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r573578072-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>30183</t>
+  </si>
+  <si>
+    <t>4451261</t>
+  </si>
+  <si>
+    <t>573578072</t>
+  </si>
+  <si>
+    <t>04/15/2018</t>
+  </si>
+  <si>
+    <t>Horrible Hotel</t>
+  </si>
+  <si>
+    <t>I would give this place a negative 10 if such a rating was offered.  My stay was the worst I have had in 20 years of business travel.  The room was in poor repair with no weather stripping around the door.  The carpet was filthy, the linens thread bare and the bed uncomfortable.  It is in the flight path of DFW Airport and near a fire station.  Continuous aircraft noise and sirens made rest impossible.  To top it all off,  I was bitten six times by a spider while sleeping. I will sleep in my car next time if this hotel is the only other option.  DO NOT WASTE YOUR MONEY.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I would give this place a negative 10 if such a rating was offered.  My stay was the worst I have had in 20 years of business travel.  The room was in poor repair with no weather stripping around the door.  The carpet was filthy, the linens thread bare and the bed uncomfortable.  It is in the flight path of DFW Airport and near a fire station.  Continuous aircraft noise and sirens made rest impossible.  To top it all off,  I was bitten six times by a spider while sleeping. I will sleep in my car next time if this hotel is the only other option.  DO NOT WASTE YOUR MONEY.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r563761122-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>563761122</t>
+  </si>
+  <si>
+    <t>03/02/2018</t>
+  </si>
+  <si>
+    <t>Nastiest place I've EVER stayed</t>
+  </si>
+  <si>
+    <t>I recommend to NOT STAY here. We stayed at this location in November 2017. Our room was HORRIBLE. The sofa had gross stains all over it. There was mold in the shower, bugs in the light fixtures and the worst part was the nasty stains on the bedding. I would love to enable to post pictures.  We spoke with the front desk and was told the manager would contact us. The customer service line for Choice Hotels told us we had to go through the  hotel, as each location independently owned and needed to be resolved with that location. We have sent e-mails to Choice with no response. You may ask why the delay on writing a review, we wanted to give the hotel and Choice Hotels the opportunity to reach back to us...which has not happened.  HIGHLY RECOMMENDED THIS HOTEL TO BE SHUT DOWN BY THE HEALTH DEPARTMENT!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I recommend to NOT STAY here. We stayed at this location in November 2017. Our room was HORRIBLE. The sofa had gross stains all over it. There was mold in the shower, bugs in the light fixtures and the worst part was the nasty stains on the bedding. I would love to enable to post pictures.  We spoke with the front desk and was told the manager would contact us. The customer service line for Choice Hotels told us we had to go through the  hotel, as each location independently owned and needed to be resolved with that location. We have sent e-mails to Choice with no response. You may ask why the delay on writing a review, we wanted to give the hotel and Choice Hotels the opportunity to reach back to us...which has not happened.  HIGHLY RECOMMENDED THIS HOTEL TO BE SHUT DOWN BY THE HEALTH DEPARTMENT!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r540065906-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>540065906</t>
+  </si>
+  <si>
+    <t>11/10/2017</t>
+  </si>
+  <si>
+    <t>A bed, a shower, and breakfast</t>
+  </si>
+  <si>
+    <t>We were forced to stay at this hotel. Missed our flight, so airline booked and paid for this one night stay...we had a small 12 lb dog, so airline said the better hotels wouldn't accept animals.  Room was so small, bathroom floor was dirty.  Everything needed updating!  Staff was helpful in finding a comb, but no tooth brush. We came in a cab, so couldn't buy food. Vending machine had junk food. Morning breakfast was good, but would never stay if I wasn't forced.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r496852916-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>496852916</t>
+  </si>
+  <si>
+    <t>06/28/2017</t>
+  </si>
+  <si>
+    <t>Don't let the name fool you</t>
+  </si>
+  <si>
+    <t>While this hotel is well located and relatively inexpensive the rooms left much to be desired. We had a light that did not function. There were dead roaches in our bathroom and the beds were not comfortable. I guess you get what you pay for.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r496365445-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>496365445</t>
+  </si>
+  <si>
+    <t>06/26/2017</t>
+  </si>
+  <si>
+    <t>Ok for over night</t>
+  </si>
+  <si>
+    <t>We got in late so we got a room upstairs, the stairs needed some repairs. The room was clean the bed was a little on the hard side but we were thankful to get to sleep. Breakast was limited but good. The office and room with the breakfast had no a.c. so it was a little uncomfortable but not bad.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r495673462-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>495673462</t>
+  </si>
+  <si>
+    <t>06/24/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You get what you pay for </t>
+  </si>
+  <si>
+    <t>Overall the hotel is ok, the breakfast choice was limited. Walkable distance to Jack in the box, the room was small but ok for two people. The curtain was not very good in our room, a bit damage. It was quite close to six flags over texas. Breakfast only serve until 9am, the waffle machine was good. Recommended for short stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r481689753-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>481689753</t>
+  </si>
+  <si>
+    <t>05/04/2017</t>
+  </si>
+  <si>
+    <t>Repulsive quality!!!</t>
+  </si>
+  <si>
+    <t>Carpet was dirty it needs to be steamed, shampooed and washed or removed immediately. It smelled of urine and was dirty, made it difficult to sleep or eat in very uncomfortably. After shower my feet we're dirty within seconds of walking on it. Pool looked unsanitary.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r474825836-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>474825836</t>
+  </si>
+  <si>
+    <t>04/11/2017</t>
+  </si>
+  <si>
+    <t>Awesome Staff but run down facilities</t>
+  </si>
+  <si>
+    <t>I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them...I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them with the hotel in that condition. I cannot say enough great things about Kaleb either.MoreShow less</t>
+  </si>
+  <si>
+    <t>I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them...I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them with the hotel in that condition. I cannot say enough great things about Kaleb either.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r473042896-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>473042896</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>Low quality for price</t>
+  </si>
+  <si>
+    <t>My son and I stayed here for one night. We arrived late--around midnight. All rooms have exterior doors as seen in picture. The employee at the front desk had obviously been smoking pot from the strong odor. We went to find our room but had to pass by several young men outside their rooms talking on their phones and either smoking cigarettes or pot. Needless to say, it was a little "seedy" in terms of clientele. The bedspread had a stain on it and the oldness of the building was noticeable. On the positive side the breakfast served in the morning was good.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r448314539-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>448314539</t>
+  </si>
+  <si>
+    <t>01/01/2017</t>
+  </si>
+  <si>
+    <t>Not too bad</t>
+  </si>
+  <si>
+    <t>We came onto see the Cowboys play. The room was basic nothing fancy. But for the money and location it was fine. It was clean, however all we did was sleep there. Did not stay for the brkfst so can't comment on that</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r447577540-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>447577540</t>
+  </si>
+  <si>
+    <t>12/29/2016</t>
+  </si>
+  <si>
+    <t>Great Stay</t>
+  </si>
+  <si>
+    <t>The staff was helpfull by helping us find a good spot to eat around and room was very clean. Extra towels were available and no cost. The breakfast was like any other place but all in all was a good stay with no problems at all.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r422655759-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>422655759</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Cowboys game</t>
+  </si>
+  <si>
+    <t>We checked into this hotel very late on a Saturday night. Front desk clerk was nice but very quiet. Since it was so late, we had to check in through the window so it was hard to hear her. The room itself was very basic. One queen bed, small bathroom, fridge and microwave. I read the reviews so my expectations were very low and I got just what I expected (leave your socks on). The bed was comfortable. The location was perfect for what we were there for (maybe a 2 mile walk to AT&amp;T Stadium). The hotel was full with fellow Cowboys and Bears fans so we felt comfortable (I'm a single Mom traveling with my pre teen son). We felt safe walking to and back from the game. We slept in so I can't comment on the breakfast selection. The day of check out, the front desk clerk (Ryan) was very nice. I printed out our boarding passes and left with no problems. Until about an hour later once I realized I left my jacket hanging in the room. I called the hotel and about 15 minutes later Ryan called me back to let me know that housekeeping found it. We stopped by and grabbed it and left for the airport. So that was nice. My only complaint would be the wifi. Neither one of us could get on it during our two night stay there. MoreShow less</t>
+  </si>
+  <si>
+    <t>We checked into this hotel very late on a Saturday night. Front desk clerk was nice but very quiet. Since it was so late, we had to check in through the window so it was hard to hear her. The room itself was very basic. One queen bed, small bathroom, fridge and microwave. I read the reviews so my expectations were very low and I got just what I expected (leave your socks on). The bed was comfortable. The location was perfect for what we were there for (maybe a 2 mile walk to AT&amp;T Stadium). The hotel was full with fellow Cowboys and Bears fans so we felt comfortable (I'm a single Mom traveling with my pre teen son). We felt safe walking to and back from the game. We slept in so I can't comment on the breakfast selection. The day of check out, the front desk clerk (Ryan) was very nice. I printed out our boarding passes and left with no problems. Until about an hour later once I realized I left my jacket hanging in the room. I called the hotel and about 15 minutes later Ryan called me back to let me know that housekeeping found it. We stopped by and grabbed it and left for the airport. So that was nice. My only complaint would be the wifi. Neither one of us could get on it during our two night stay there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r390988617-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>390988617</t>
+  </si>
+  <si>
+    <t>07/10/2016</t>
+  </si>
+  <si>
+    <t>Terrible, just terrible, avoid</t>
+  </si>
+  <si>
+    <t>Booked on booking.com for 50 USD with breakfast for a Thursday night.  Room 201. I stay in hotels more than 60 nights per year. Up side: close to Attractions, not expensive and breakfast was good.  Downside: dirty and filthy - stains on sheets, stains on walls, cracked tub, damp carpet, dead bugs in light fixtures, Ceiling sheet rock was drooping and looked like it was ready to fall on the bed,  AC didn't work properly and so room was hot and water dripped out onto the carpet so it was damp.  The damp carpet was perfect for cleaning off the soles of my shoes and I could freshen up my bare feet before getting into bed by giving them a wipe in the big wet spot.  Door would not close properly after being forced open by too many police raids.  Basically my room was a hot, damp dirty hole with a door that wouldn't close well.  Ravi Patel - Shame on you.  Choice Hotels - Shame on you.  To call this a hotel "quality" is a lie.  Just because you are near the stadiums, 6 Flags is no reason to sell such substandard rooms.  You can do better, much better.  Try cleaning the rooms, painting the walls, fix the door and AC.  The bacon at breakfast was tasty.  But the TV in the breakfast room did not.Avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Booked on booking.com for 50 USD with breakfast for a Thursday night.  Room 201. I stay in hotels more than 60 nights per year. Up side: close to Attractions, not expensive and breakfast was good.  Downside: dirty and filthy - stains on sheets, stains on walls, cracked tub, damp carpet, dead bugs in light fixtures, Ceiling sheet rock was drooping and looked like it was ready to fall on the bed,  AC didn't work properly and so room was hot and water dripped out onto the carpet so it was damp.  The damp carpet was perfect for cleaning off the soles of my shoes and I could freshen up my bare feet before getting into bed by giving them a wipe in the big wet spot.  Door would not close properly after being forced open by too many police raids.  Basically my room was a hot, damp dirty hole with a door that wouldn't close well.  Ravi Patel - Shame on you.  Choice Hotels - Shame on you.  To call this a hotel "quality" is a lie.  Just because you are near the stadiums, 6 Flags is no reason to sell such substandard rooms.  You can do better, much better.  Try cleaning the rooms, painting the walls, fix the door and AC.  The bacon at breakfast was tasty.  But the TV in the breakfast room did not.Avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r390575892-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>390575892</t>
+  </si>
+  <si>
+    <t>07/08/2016</t>
+  </si>
+  <si>
+    <t>Good overall</t>
+  </si>
+  <si>
+    <t>Pros: A good breakfastGood check in- and friendly serviceRoom was nice and clean-Newly renovated  Refrigerator and microwaveNice bathroomGreat rateGreat free wi-fi- Really surprised how good this was compared to other hotels.Cons: Rooms too small- Do not have more than 2 people in a roomLoud people in the parking lot and knocking at doors in the middle of the nightSo, Overall more pros than cons- so I recommend this property to stay if traveling solo or a couple. Not recommended for families. Well worth the rate you pay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r388149619-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>388149619</t>
+  </si>
+  <si>
+    <t>07/01/2016</t>
+  </si>
+  <si>
+    <t>Great Value for Price</t>
+  </si>
+  <si>
+    <t>This hotel is much nicer than what you would expect for the price they charge. The rooms are clean, they have a free breakfast, and the WiFi is really good.If you are a train watcher, there is a Union Pacific industrial track next to the hotel, lots of opportunities to see them switching the local industries.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r385412972-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>385412972</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Nice room,nice people. But let people check in early.</t>
+  </si>
+  <si>
+    <t>I stayed there 6/23. Its a great hotel for the price ! ($46) It is small, but big enough if you have 1 or 2 people staying there. The bed was great and big enough for me to sprawl out in. It has a cute basin sink. It is literally minutes away from Six Flags. I had no problems with loud noise and it was a clean room. Has a little fridge and microwave.One or two drawbacks:: They wont let you check in before 3pm. I got there at 2. Most hotels let you check in early if they have a room, come on now. I just went and got something to eat. And the shower faucet is loose. (room 230)MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded June 30, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2016</t>
+  </si>
+  <si>
+    <t>I stayed there 6/23. Its a great hotel for the price ! ($46) It is small, but big enough if you have 1 or 2 people staying there. The bed was great and big enough for me to sprawl out in. It has a cute basin sink. It is literally minutes away from Six Flags. I had no problems with loud noise and it was a clean room. Has a little fridge and microwave.One or two drawbacks:: They wont let you check in before 3pm. I got there at 2. Most hotels let you check in early if they have a room, come on now. I just went and got something to eat. And the shower faucet is loose. (room 230)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r383827867-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>383827867</t>
+  </si>
+  <si>
+    <t>06/18/2016</t>
+  </si>
+  <si>
+    <t>Great place for the price!!</t>
+  </si>
+  <si>
+    <t>I wasn't so sure about this place after reading the reviews and the location. All that went away when I checked in. The clerk was super nice and it went rather quickly. The room was rather small I might add. However it was quite comfortable. The room was very clean and so was the restroom. Great water pressure, working microwave, and good mini fridge. Breakfast was your usual waffles, eggs, toast, bagels, sausage patty, cereal, and yogurt. Check out was quick. Handed over the room key was asked about my stay and it was over in 30 secondsOverall I would recommend this place. Everything was spot on. Don't be afraid reading some of these reviews. This place is nothing like those bad reviews suggestMoreShow less</t>
+  </si>
+  <si>
+    <t>I wasn't so sure about this place after reading the reviews and the location. All that went away when I checked in. The clerk was super nice and it went rather quickly. The room was rather small I might add. However it was quite comfortable. The room was very clean and so was the restroom. Great water pressure, working microwave, and good mini fridge. Breakfast was your usual waffles, eggs, toast, bagels, sausage patty, cereal, and yogurt. Check out was quick. Handed over the room key was asked about my stay and it was over in 30 secondsOverall I would recommend this place. Everything was spot on. Don't be afraid reading some of these reviews. This place is nothing like those bad reviews suggestMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r383295613-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>383295613</t>
+  </si>
+  <si>
+    <t>06/16/2016</t>
+  </si>
+  <si>
+    <t>Great price and great stay</t>
+  </si>
+  <si>
+    <t>As we drove up I questioned my choice.  I asked to see room first.  They kindly offered to show me.  Small room, but very clean.  Beds were comfortable.  AWESOME  hot water and water pressure.  The location was more in industrial area, but was nice and quiet.  After first night I felt safe.  We stayed 4 nights.  Great place for a very great price.  It was for sleeping anyways.  Staff was very nice.  It has been recently painted and newer faucets and toilet.  I was very satisfied.   I just have a hard time paying a hundred dollars or more to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>As we drove up I questioned my choice.  I asked to see room first.  They kindly offered to show me.  Small room, but very clean.  Beds were comfortable.  AWESOME  hot water and water pressure.  The location was more in industrial area, but was nice and quiet.  After first night I felt safe.  We stayed 4 nights.  Great place for a very great price.  It was for sleeping anyways.  Staff was very nice.  It has been recently painted and newer faucets and toilet.  I was very satisfied.   I just have a hard time paying a hundred dollars or more to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r366745831-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>366745831</t>
+  </si>
+  <si>
+    <t>04/23/2016</t>
+  </si>
+  <si>
+    <t>Great for a two star motel!</t>
+  </si>
+  <si>
+    <t>I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  
+WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two...I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two bars that morning.  So not sure what that was about, and not blaming the hotel, just an oddity to be aware of in case you're a T-Mobile user.  So used the motel's landline to make my local calls.Not sure why I didn't try this motel before - maybe the prices are higher than I usually want to spend.  But whenever I need to come to Arlington again, if this place is $75 or less, I will definitely be staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  
+WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two...I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two bars that morning.  So not sure what that was about, and not blaming the hotel, just an oddity to be aware of in case you're a T-Mobile user.  So used the motel's landline to make my local calls.Not sure why I didn't try this motel before - maybe the prices are higher than I usually want to spend.  But whenever I need to come to Arlington again, if this place is $75 or less, I will definitely be staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r363433022-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>363433022</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Depends on what you want</t>
+  </si>
+  <si>
+    <t>Let's do some pros/cons here because this property clearly has people wildly on both sides of the fence.
+Pro
+- Close to Rangers ballpark and Cowboy stadium (30 minute straight shot walk, very walkable)
+- Jack in the box 5 minute walk
+- Can be had very cheap if booked on their website or in advance (the rack rate on event days was x4 what I paid)
+- Small pool for relaxing on a hot day
+- Room was clearly a bit old and needed an update but otherwise was very comfortable and clean
+Cons
+- It's basically on the highway, so there's not much else accessible nearby without a car, but they do have plenty of parking here if you've rented one
+- The layout does suck and the big windows facing the bed don't make it SUPER private, though the curtain does work really well
+- Early check-in cost me $20 (just under half of my room rate) for 2 hours.  When I asked if I could just keep my bag behind the desk at the lobby and go walk around for lunch, I was told there was nowhere to keep it and thus basically forced into paying the $20
+- Could probably be pretty noisy if you're on the street side
+All that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had...Let's do some pros/cons here because this property clearly has people wildly on both sides of the fence.Pro- Close to Rangers ballpark and Cowboy stadium (30 minute straight shot walk, very walkable)- Jack in the box 5 minute walk- Can be had very cheap if booked on their website or in advance (the rack rate on event days was x4 what I paid)- Small pool for relaxing on a hot day- Room was clearly a bit old and needed an update but otherwise was very comfortable and cleanCons- It's basically on the highway, so there's not much else accessible nearby without a car, but they do have plenty of parking here if you've rented one- The layout does suck and the big windows facing the bed don't make it SUPER private, though the curtain does work really well- Early check-in cost me $20 (just under half of my room rate) for 2 hours.  When I asked if I could just keep my bag behind the desk at the lobby and go walk around for lunch, I was told there was nowhere to keep it and thus basically forced into paying the $20- Could probably be pretty noisy if you're on the street sideAll that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had a nice time walking to the building, avoided all the crazy parking prices, got some exercise and sun.  It's certainly not 5 stars, but it doesn't need to be.  Just make sure you book in advance to get not only a decent price, a great price.  Wifi was FANTASTIC too, especially after the place I had stayed the night before.  The hotel isn't accessible by transit in any way (maybe no surprise to TX veterans) but it's very easy to find a ride with Uber/Lyft.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 16, 2016</t>
+  </si>
+  <si>
+    <t>Let's do some pros/cons here because this property clearly has people wildly on both sides of the fence.
+Pro
+- Close to Rangers ballpark and Cowboy stadium (30 minute straight shot walk, very walkable)
+- Jack in the box 5 minute walk
+- Can be had very cheap if booked on their website or in advance (the rack rate on event days was x4 what I paid)
+- Small pool for relaxing on a hot day
+- Room was clearly a bit old and needed an update but otherwise was very comfortable and clean
+Cons
+- It's basically on the highway, so there's not much else accessible nearby without a car, but they do have plenty of parking here if you've rented one
+- The layout does suck and the big windows facing the bed don't make it SUPER private, though the curtain does work really well
+- Early check-in cost me $20 (just under half of my room rate) for 2 hours.  When I asked if I could just keep my bag behind the desk at the lobby and go walk around for lunch, I was told there was nowhere to keep it and thus basically forced into paying the $20
+- Could probably be pretty noisy if you're on the street side
+All that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had...Let's do some pros/cons here because this property clearly has people wildly on both sides of the fence.Pro- Close to Rangers ballpark and Cowboy stadium (30 minute straight shot walk, very walkable)- Jack in the box 5 minute walk- Can be had very cheap if booked on their website or in advance (the rack rate on event days was x4 what I paid)- Small pool for relaxing on a hot day- Room was clearly a bit old and needed an update but otherwise was very comfortable and cleanCons- It's basically on the highway, so there's not much else accessible nearby without a car, but they do have plenty of parking here if you've rented one- The layout does suck and the big windows facing the bed don't make it SUPER private, though the curtain does work really well- Early check-in cost me $20 (just under half of my room rate) for 2 hours.  When I asked if I could just keep my bag behind the desk at the lobby and go walk around for lunch, I was told there was nowhere to keep it and thus basically forced into paying the $20- Could probably be pretty noisy if you're on the street sideAll that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had a nice time walking to the building, avoided all the crazy parking prices, got some exercise and sun.  It's certainly not 5 stars, but it doesn't need to be.  Just make sure you book in advance to get not only a decent price, a great price.  Wifi was FANTASTIC too, especially after the place I had stayed the night before.  The hotel isn't accessible by transit in any way (maybe no surprise to TX veterans) but it's very easy to find a ride with Uber/Lyft.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r361979463-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>361979463</t>
+  </si>
+  <si>
+    <t>04/06/2016</t>
+  </si>
+  <si>
+    <t>Needs Renovations</t>
+  </si>
+  <si>
+    <t>Went to Dallas / Arlington area for the first time , didn't know where to stay so stayed here , at first appearance looked descent,  until we got into room . First thing noticed was door didn't shut properly in room 120,  then went to go use sink after a few seconds water would slowly drain but took up to a few minutes to do so , toilet wobbled everytime you went to sit on it thought it was going to fall over , all I have to say is you get what you pay for , the one good thing is it close to a lot of things in Arlington , definitely needs to be renovated and updated MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 7, 2016</t>
+  </si>
+  <si>
+    <t>Went to Dallas / Arlington area for the first time , didn't know where to stay so stayed here , at first appearance looked descent,  until we got into room . First thing noticed was door didn't shut properly in room 120,  then went to go use sink after a few seconds water would slowly drain but took up to a few minutes to do so , toilet wobbled everytime you went to sit on it thought it was going to fall over , all I have to say is you get what you pay for , the one good thing is it close to a lot of things in Arlington , definitely needs to be renovated and updated More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r355770999-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>355770999</t>
+  </si>
+  <si>
+    <t>03/15/2016</t>
+  </si>
+  <si>
+    <t>Close to Six Flags and cheap</t>
+  </si>
+  <si>
+    <t>This motel was only 44$ compared to 148$ for the hotel we normally stay at. The layout is horrible. If u need towels and are located at the back of the property as we were you might as well hop in the car to go get them. Same for breakfast. I will say I was impressed with the breakfast for such a cheap rate. Rooms are small and dated. If you are only needing a place to crash after a long day in the sun for cheap than this is your place. I would stay here again.....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r352217640-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>352217640</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>You're paying for the location!</t>
+  </si>
+  <si>
+    <t>Ok, it's a little run-down, but not located in a ghetto though. It's very close to Six Flags and the sports stadiums and the price is super low. The room is small, so if you have kids, they better be tired from your Six Flags visit! A few issues - first room we tried to check into, all of the beds were leaning up against the wall (maintanance maybe) and our door lock seemed to be messed up. Positives - breakfast was good.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r344114038-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>344114038</t>
+  </si>
+  <si>
+    <t>01/31/2016</t>
+  </si>
+  <si>
+    <t>Total shitshow</t>
+  </si>
+  <si>
+    <t>Oh boy...where do I begin...We booked package deal on Priceline. Coming from LA for the first time to visit Texas for pleasure....the minute we pulled in, it was obvious that this place is sketchy. Night desk is behind a bullet proof glass-that's promising. When we went upstairs, room 224, we couldn't open the door because it was stuck. Hubby had to put in the effort to open it and it wouldn't close all the way through. We called front desk to tell them about the problem because we were afraid for our safety, Angelica at front desk couldn't care less. All she could muster out is that we would have to pay extra if we switch the room. What a customer service. Room was TINY! Lack of mirrors, lack of lighting. Worst part is that you hear the highway like it's right on top of you. If you're a cheap dinosaur like me, please listen, DO NOT book this place. It's not a hotel, it's a motel. Spend a little extra but stay somewhere more pleasant. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Oh boy...where do I begin...We booked package deal on Priceline. Coming from LA for the first time to visit Texas for pleasure....the minute we pulled in, it was obvious that this place is sketchy. Night desk is behind a bullet proof glass-that's promising. When we went upstairs, room 224, we couldn't open the door because it was stuck. Hubby had to put in the effort to open it and it wouldn't close all the way through. We called front desk to tell them about the problem because we were afraid for our safety, Angelica at front desk couldn't care less. All she could muster out is that we would have to pay extra if we switch the room. What a customer service. Room was TINY! Lack of mirrors, lack of lighting. Worst part is that you hear the highway like it's right on top of you. If you're a cheap dinosaur like me, please listen, DO NOT book this place. It's not a hotel, it's a motel. Spend a little extra but stay somewhere more pleasant. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r337850859-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>337850859</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Decent for the cost</t>
+  </si>
+  <si>
+    <t>The location is a little weird but it seems safe enough &amp; is easy to get to.It's not five star by any means but the room was fairly clean &amp; recently updated.Breakfast was above average for the type of lodging.We would stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r327186721-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>327186721</t>
+  </si>
+  <si>
+    <t>11/16/2015</t>
+  </si>
+  <si>
+    <t>Spend the extra money for peace of mind.</t>
+  </si>
+  <si>
+    <t>On a late Friday Night, my wife and I stayed here as a budget oriented option to see the Dallas Cowboys that Sunday and I early checked out Saturday morning.Around 4:30AM, we we're woken up by the sound of the police pounding 3-4 doors down and yelling at someone to "Get down!" which ironically ended in celebration 5 minutes later and early morning drinking!We came down for breakfast and it was disgusting. You could squeeze out all sorts of water out of the eggs and the staff members even cut us to get food! Luckily, we were refunded for the nights we didn't use and ultimately the ~100/dollar weekend rate for the place is absolutely not worth it. Spend your money else where and you'll be happier at the end of the day.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>On a late Friday Night, my wife and I stayed here as a budget oriented option to see the Dallas Cowboys that Sunday and I early checked out Saturday morning.Around 4:30AM, we we're woken up by the sound of the police pounding 3-4 doors down and yelling at someone to "Get down!" which ironically ended in celebration 5 minutes later and early morning drinking!We came down for breakfast and it was disgusting. You could squeeze out all sorts of water out of the eggs and the staff members even cut us to get food! Luckily, we were refunded for the nights we didn't use and ultimately the ~100/dollar weekend rate for the place is absolutely not worth it. Spend your money else where and you'll be happier at the end of the day.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r325823714-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>325823714</t>
+  </si>
+  <si>
+    <t>11/10/2015</t>
+  </si>
+  <si>
+    <t>Older style rooms, definitely needs renovations!</t>
+  </si>
+  <si>
+    <t>Not badly priced, close to 6 Flags and the stadium, other than that older hotel, rooms are very basic, with refrigerator and microwave, nice size breakfast room area, computer and printer a definite plus!   Staff nice and helpful.  Hotel could use a facelift.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r306056769-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>306056769</t>
+  </si>
+  <si>
+    <t>09/01/2015</t>
+  </si>
+  <si>
+    <t>Older Hotel but good value and clean comfortable beds</t>
+  </si>
+  <si>
+    <t>I would stay here again, good price and close to AT&amp;T stadium. Very old hotel and there were two dead bugs in the bathroom upon arrival but they were dead and beds were clean and comfortable. Breakfast was hot and staff was very friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded September 6, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 6, 2015</t>
+  </si>
+  <si>
+    <t>I would stay here again, good price and close to AT&amp;T stadium. Very old hotel and there were two dead bugs in the bathroom upon arrival but they were dead and beds were clean and comfortable. Breakfast was hot and staff was very friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r302909249-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>302909249</t>
+  </si>
+  <si>
+    <t>08/24/2015</t>
+  </si>
+  <si>
+    <t>NOT WHAT I'M USED TO.</t>
+  </si>
+  <si>
+    <t>Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed...Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed anything to just ask her. So to sum this up, the rooms are too small for the price, the area is not well lit and if you go by the way it looks on the outside and the unkept surroundings, you will go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2015</t>
+  </si>
+  <si>
+    <t>Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed...Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed anything to just ask her. So to sum this up, the rooms are too small for the price, the area is not well lit and if you go by the way it looks on the outside and the unkept surroundings, you will go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r293936161-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>293936161</t>
+  </si>
+  <si>
+    <t>07/29/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay </t>
+  </si>
+  <si>
+    <t>We stayed here for three nights because is close to six flags . The hotel is not over crowded the rooms were clean and the staff was very nice . Angelica was very helpful and Nice the rates were good . Its a good hotel if your bugged is short for a quick vacation. I really recommend it. Hope you guy enjoy it as much as we did  . Tnx MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 2, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 2, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for three nights because is close to six flags . The hotel is not over crowded the rooms were clean and the staff was very nice . Angelica was very helpful and Nice the rates were good . Its a good hotel if your bugged is short for a quick vacation. I really recommend it. Hope you guy enjoy it as much as we did  . Tnx More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r291173851-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>291173851</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>Worst hotel EVER!!!!</t>
+  </si>
+  <si>
+    <t>Checked in on a recent vacation due to the fact that it was close to six flags and had reasonable prices. Well....let me tell you....we checked out just as fast as we could! THIS IS WHY.   The smell was sour as we entered the room. Once we turned on the lights we noticed stains on the walls and just about everywhere else. The bedding looked as if it hadn't been washed in weeks. The bathroom had a hole in the wall and the vent was hanging out the ceiling. Bathtub looked to be about as clean as the disgusting toilet.    This place was gross! Do yourself a favor and keep on driving  past this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Checked in on a recent vacation due to the fact that it was close to six flags and had reasonable prices. Well....let me tell you....we checked out just as fast as we could! THIS IS WHY.   The smell was sour as we entered the room. Once we turned on the lights we noticed stains on the walls and just about everywhere else. The bedding looked as if it hadn't been washed in weeks. The bathroom had a hole in the wall and the vent was hanging out the ceiling. Bathtub looked to be about as clean as the disgusting toilet.    This place was gross! Do yourself a favor and keep on driving  past this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r290584236-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>290584236</t>
+  </si>
+  <si>
+    <t>07/19/2015</t>
+  </si>
+  <si>
+    <t>Horrible room.</t>
+  </si>
+  <si>
+    <t>I enjoyed the trip despite being uncomfortable with my safety. The room had flies in the bathroom as soon as we got there. The sink drainer wasn't working. The room was alright except that the door had appeared to look kicked in. It wouldn't shut all the way and I could see other hotel goers walking by. The next morning my boyfriend came back from a walmart trip and the lock jammed. We spent a good 15 minutes trying to jam the lock back into the door to shut it. The breakfast was either under cooked or over cooked. I would not recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>I enjoyed the trip despite being uncomfortable with my safety. The room had flies in the bathroom as soon as we got there. The sink drainer wasn't working. The room was alright except that the door had appeared to look kicked in. It wouldn't shut all the way and I could see other hotel goers walking by. The next morning my boyfriend came back from a walmart trip and the lock jammed. We spent a good 15 minutes trying to jam the lock back into the door to shut it. The breakfast was either under cooked or over cooked. I would not recommend this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r281928441-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>281928441</t>
+  </si>
+  <si>
+    <t>06/21/2015</t>
+  </si>
+  <si>
+    <t>Why are people rating 5-4 stars?</t>
+  </si>
+  <si>
+    <t>I honestly do not understand where people are getting the 4-5 star ratings from. I had a terrible experience. When we first got there the looks were not the best but I figured that would be the case due to the low pricing I found. We checked in and it was pretty good. Then we drove around back to our room. People were hanging out in the parking lot, looking shady. Now I didn't care that much because they can't help the people who were there/ around there. We got inside only to be greeted by a small room, a bathroom with many hairs and stains everywhere, and a bed with sheds that looked like they haven't been washed in months. The worst part? Roaches everywhere. Not only on the walls, but there were two (not one roach, BUT TWO.) in the bed. Yes, under the blankets and comforter. Ew. The room wasn't pleasant. Paint peeling off the walls, the room reeking of smoke, even though it was suppose to be a smoke free room, and lots of poor cleaning. Could not get a hold of anyone at the front office via phone. Was very close to Six Flags, but that's about it in the way of good things about the hotel. I hope they someday shape up because they could make some good money being that close in proximity to Six FlagsMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded June 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 22, 2015</t>
+  </si>
+  <si>
+    <t>I honestly do not understand where people are getting the 4-5 star ratings from. I had a terrible experience. When we first got there the looks were not the best but I figured that would be the case due to the low pricing I found. We checked in and it was pretty good. Then we drove around back to our room. People were hanging out in the parking lot, looking shady. Now I didn't care that much because they can't help the people who were there/ around there. We got inside only to be greeted by a small room, a bathroom with many hairs and stains everywhere, and a bed with sheds that looked like they haven't been washed in months. The worst part? Roaches everywhere. Not only on the walls, but there were two (not one roach, BUT TWO.) in the bed. Yes, under the blankets and comforter. Ew. The room wasn't pleasant. Paint peeling off the walls, the room reeking of smoke, even though it was suppose to be a smoke free room, and lots of poor cleaning. Could not get a hold of anyone at the front office via phone. Was very close to Six Flags, but that's about it in the way of good things about the hotel. I hope they someday shape up because they could make some good money being that close in proximity to Six FlagsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r273169653-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>273169653</t>
+  </si>
+  <si>
+    <t>05/19/2015</t>
+  </si>
+  <si>
+    <t>Six Flags Visit</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn across from Six Flags park. I booked through Choice Hotels. I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  The door was also difficult to open and we had to slam it to make sure it was closed completely The light in the bedroom also did not work and even though we reported it, no one fixed it. However, it was clean and the heat and bathroom all worked well. If I was in the same situation, looking for absolute lowest price I'd stay here again. But to pay regular rates, I would probably go elsewhere.It was close to all the area attractions and if you are just looking for a place to sleep and have a great breakfast this is the place for you.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded May 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn across from Six Flags park. I booked through Choice Hotels. I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  The door was also difficult to open and we had to slam it to make sure it was closed completely The light in the bedroom also did not work and even though we reported it, no one fixed it. However, it was clean and the heat and bathroom all worked well. If I was in the same situation, looking for absolute lowest price I'd stay here again. But to pay regular rates, I would probably go elsewhere.It was close to all the area attractions and if you are just looking for a place to sleep and have a great breakfast this is the place for you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r268197919-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>268197919</t>
+  </si>
+  <si>
+    <t>04/26/2015</t>
+  </si>
+  <si>
+    <t>ACM STAY</t>
+  </si>
+  <si>
+    <t>We stayed here for the acm awards and fest.  it was close to restaurants and the stadiums.  there was no problems.  reasonably priced, clean rooms. beds were comfortable.  the room was maybe a little small for a family, but fine for two.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded May 4, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2015</t>
+  </si>
+  <si>
+    <t>We stayed here for the acm awards and fest.  it was close to restaurants and the stadiums.  there was no problems.  reasonably priced, clean rooms. beds were comfortable.  the room was maybe a little small for a family, but fine for two.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r257506856-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>257506856</t>
+  </si>
+  <si>
+    <t>03/03/2015</t>
+  </si>
+  <si>
+    <t>Average place at a great price</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn across from Six Flags park.  I booked through Priceline Name your own price, so I got well below the standard rack rate.  I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  However, it was clean and the heat and bathroom all worked well.  If I was in the same situation, looking for absolute lowest price I'd stay here again.  But to pay regular rates, I would probably go elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded March 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2015</t>
+  </si>
+  <si>
+    <t>We stayed at the Quality Inn across from Six Flags park.  I booked through Priceline Name your own price, so I got well below the standard rack rate.  I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  However, it was clean and the heat and bathroom all worked well.  If I was in the same situation, looking for absolute lowest price I'd stay here again.  But to pay regular rates, I would probably go elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r249470868-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>249470868</t>
+  </si>
+  <si>
+    <t>01/15/2015</t>
+  </si>
+  <si>
+    <t>"Just ok"</t>
+  </si>
+  <si>
+    <t>Booked this hotel based on trip advisor reviews and price. Was in town for national championship. Was concerned wouldn't find anything else so booked quickly. Inexpensive. But I have to have clean.! The room we had was a nonsmoking queen. The room was so small. Would be fine for one person but crowded with two of us. The vanity is very small. But the room was clean but  bedspread had stains on it. Weren't enough towels for two people. Property exterior is in bad shape! The outside hallway lights are so bright at night and shine through curtain and make it difficult to sleep. A turnoff was the quality inn sign in front was not lighted and is very difficult to see! Maybe just a burned out sign. There is a small area for breakfast in morning. Breakfast 6am to 9 am. We never made it down so cannot say what it was like.Location to att stadium was good. The only thing within walking distance was a jack in box. Definitely need a car if staying here. It's also very close to six flags. So if your looking for inexpensive and not going to be in room much? This would be ok. Personally would never stay again. Would have preferred to spend more money for nicer hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 20, 2015</t>
+  </si>
+  <si>
+    <t>Booked this hotel based on trip advisor reviews and price. Was in town for national championship. Was concerned wouldn't find anything else so booked quickly. Inexpensive. But I have to have clean.! The room we had was a nonsmoking queen. The room was so small. Would be fine for one person but crowded with two of us. The vanity is very small. But the room was clean but  bedspread had stains on it. Weren't enough towels for two people. Property exterior is in bad shape! The outside hallway lights are so bright at night and shine through curtain and make it difficult to sleep. A turnoff was the quality inn sign in front was not lighted and is very difficult to see! Maybe just a burned out sign. There is a small area for breakfast in morning. Breakfast 6am to 9 am. We never made it down so cannot say what it was like.Location to att stadium was good. The only thing within walking distance was a jack in box. Definitely need a car if staying here. It's also very close to six flags. So if your looking for inexpensive and not going to be in room much? This would be ok. Personally would never stay again. Would have preferred to spend more money for nicer hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r245754163-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>245754163</t>
+  </si>
+  <si>
+    <t>12/24/2014</t>
+  </si>
+  <si>
+    <t>A Little Gem</t>
+  </si>
+  <si>
+    <t>I paid about 45 dollars a night. I wasn't sure what to expect. I was impressed. Good Things:1.) Centrally located2.) Affordable rates3.) Clean/Comfortable Room4.) A LARGE selection of cable channels. This is a key point for me. 5.) Wifi was actually useable. Another Key Point. Needs Improvement: 1.) Not easy to find. Hotel could spend a few bucks to replace the lights in their signs. Note to Travelers: This hotel borders an active Union Pacific Railroad industrial spur. The spur is served by at least 1 daily switcher which comes through around 7-9 am and there are numerous crossings requiring a horn. I like trains, so this didn't bother me, but it's good to know.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded December 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded December 25, 2014</t>
+  </si>
+  <si>
+    <t>I paid about 45 dollars a night. I wasn't sure what to expect. I was impressed. Good Things:1.) Centrally located2.) Affordable rates3.) Clean/Comfortable Room4.) A LARGE selection of cable channels. This is a key point for me. 5.) Wifi was actually useable. Another Key Point. Needs Improvement: 1.) Not easy to find. Hotel could spend a few bucks to replace the lights in their signs. Note to Travelers: This hotel borders an active Union Pacific Railroad industrial spur. The spur is served by at least 1 daily switcher which comes through around 7-9 am and there are numerous crossings requiring a horn. I like trains, so this didn't bother me, but it's good to know.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r238148256-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>238148256</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Nice inexpensive place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The price was good, and the room was a basic configuration. The breakfast was better than expected. The internet was there but slow and did not always connect. I would stay again, but it would be a little too basic for my wife and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded November 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded November 9, 2014</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights. The price was good, and the room was a basic configuration. The breakfast was better than expected. The internet was there but slow and did not always connect. I would stay again, but it would be a little too basic for my wife and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r226105244-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>226105244</t>
+  </si>
+  <si>
+    <t>09/01/2014</t>
+  </si>
+  <si>
+    <t>Great staff, best shower ever, great value</t>
+  </si>
+  <si>
+    <t>I stayed here in December 2013 and checked in the night before a big ice/snow storm.  This is an owner / family run hotel that I think used to be a Motel 6.  The rooms are small, but provide great value.  The shower is probably at the tops for any hotel that I have ever stayed at.  Clean rooms.The only problem I really encountered was when the parking lot iced over during my stay.  The owner used what cat litter / rock salt he could get to combat it but it was not quite enough.  So if you are traveling to the winter months and there is an ice storm coming you might want to pack a few bags of cat litter, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded September 4, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 4, 2014</t>
+  </si>
+  <si>
+    <t>I stayed here in December 2013 and checked in the night before a big ice/snow storm.  This is an owner / family run hotel that I think used to be a Motel 6.  The rooms are small, but provide great value.  The shower is probably at the tops for any hotel that I have ever stayed at.  Clean rooms.The only problem I really encountered was when the parking lot iced over during my stay.  The owner used what cat litter / rock salt he could get to combat it but it was not quite enough.  So if you are traveling to the winter months and there is an ice storm coming you might want to pack a few bags of cat litter, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r224915222-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>224915222</t>
+  </si>
+  <si>
+    <t>08/27/2014</t>
+  </si>
+  <si>
+    <t>Worth the MONEY!!!!!</t>
+  </si>
+  <si>
+    <t>The service provided to me by all the hotel staff was great. The motel seemed to renovated recently. My kids enjoyed their stay as well! They have a pool which is really nice and its great for kids to hang out at. The only thing is the pool closes at 9:30.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2014</t>
+  </si>
+  <si>
+    <t>The service provided to me by all the hotel staff was great. The motel seemed to renovated recently. My kids enjoyed their stay as well! They have a pool which is really nice and its great for kids to hang out at. The only thing is the pool closes at 9:30.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r223054055-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>223054055</t>
+  </si>
+  <si>
+    <t>08/19/2014</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>The hotel is great and the staff is very nice as well. We visited six flags and went to the rangers game. The staff helped us find parking which wasn't too expensive since they didn't provide shuttle to the game.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 23, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 23, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is great and the staff is very nice as well. We visited six flags and went to the rangers game. The staff helped us find parking which wasn't too expensive since they didn't provide shuttle to the game.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r221854695-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>221854695</t>
+  </si>
+  <si>
+    <t>08/14/2014</t>
+  </si>
+  <si>
+    <t>Definitely Better than it looks.</t>
+  </si>
+  <si>
+    <t>I found a reeeeeaaaaaaallllllllly good deal per night at this hotel so I was not expecting much.  I just wanted somewhere good where we could sleep and get ready during our less than than 36 hr long trip to Arlington.  This definitely did the trick.  We checked in at 1 am on a Monday night and that went smooth, checked out at 5 am on Wednesday by leaving our key in the room and out we went. It's right next to a highway which was good for quick access to other places in Dallas and the airport.
+There is free breakfast from 6:30 am to 10 am I believe, but we didn't get the worm because we were not early birds. ha
+The rooms are very small, with your vanity right outside the bathroom door and the bathroom had just enough space for a bathtub and toilet.
+The rooms are newly renovated and look nice with all the modern finishings, carpet, granite counter top, bathroom fixtures, paint, tile floors, bed linens, new furniture (desk, closet, nightstands), etc.  Also our room had a mini fridge and microwave, which we didn't use either.
+One thing we found odd was that the TV wouldn't turn on the first night, upon closer inspection, it wasn't plugged in!  I guess we were the 1st to use it?!
+The housekeeping was good on the only day we came back, they set out fresh towels, made the...I found a reeeeeaaaaaaallllllllly good deal per night at this hotel so I was not expecting much.  I just wanted somewhere good where we could sleep and get ready during our less than than 36 hr long trip to Arlington.  This definitely did the trick.  We checked in at 1 am on a Monday night and that went smooth, checked out at 5 am on Wednesday by leaving our key in the room and out we went. It's right next to a highway which was good for quick access to other places in Dallas and the airport.There is free breakfast from 6:30 am to 10 am I believe, but we didn't get the worm because we were not early birds. haThe rooms are very small, with your vanity right outside the bathroom door and the bathroom had just enough space for a bathtub and toilet.The rooms are newly renovated and look nice with all the modern finishings, carpet, granite counter top, bathroom fixtures, paint, tile floors, bed linens, new furniture (desk, closet, nightstands), etc.  Also our room had a mini fridge and microwave, which we didn't use either.One thing we found odd was that the TV wouldn't turn on the first night, upon closer inspection, it wasn't plugged in!  I guess we were the 1st to use it?!The housekeeping was good on the only day we came back, they set out fresh towels, made the bed, and took the trash. -our room was as good as the beginning.The one thing I have to say is that I wish they paid closer attention to cleaning, the tub could have used a better wash.The morning we were getting ready to leave, there was a cricket in the light fixture above the bathroom sink vanity.  I don't think it was there the whole time we were, but I still wonder how it even got in there because we were on the 1st floor of a 2 story building.All in all, I would say this is good for a quick trip and if you can get a good deal, I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Front Office Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 17, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 17, 2014</t>
+  </si>
+  <si>
+    <t>I found a reeeeeaaaaaaallllllllly good deal per night at this hotel so I was not expecting much.  I just wanted somewhere good where we could sleep and get ready during our less than than 36 hr long trip to Arlington.  This definitely did the trick.  We checked in at 1 am on a Monday night and that went smooth, checked out at 5 am on Wednesday by leaving our key in the room and out we went. It's right next to a highway which was good for quick access to other places in Dallas and the airport.
+There is free breakfast from 6:30 am to 10 am I believe, but we didn't get the worm because we were not early birds. ha
+The rooms are very small, with your vanity right outside the bathroom door and the bathroom had just enough space for a bathtub and toilet.
+The rooms are newly renovated and look nice with all the modern finishings, carpet, granite counter top, bathroom fixtures, paint, tile floors, bed linens, new furniture (desk, closet, nightstands), etc.  Also our room had a mini fridge and microwave, which we didn't use either.
+One thing we found odd was that the TV wouldn't turn on the first night, upon closer inspection, it wasn't plugged in!  I guess we were the 1st to use it?!
+The housekeeping was good on the only day we came back, they set out fresh towels, made the...I found a reeeeeaaaaaaallllllllly good deal per night at this hotel so I was not expecting much.  I just wanted somewhere good where we could sleep and get ready during our less than than 36 hr long trip to Arlington.  This definitely did the trick.  We checked in at 1 am on a Monday night and that went smooth, checked out at 5 am on Wednesday by leaving our key in the room and out we went. It's right next to a highway which was good for quick access to other places in Dallas and the airport.There is free breakfast from 6:30 am to 10 am I believe, but we didn't get the worm because we were not early birds. haThe rooms are very small, with your vanity right outside the bathroom door and the bathroom had just enough space for a bathtub and toilet.The rooms are newly renovated and look nice with all the modern finishings, carpet, granite counter top, bathroom fixtures, paint, tile floors, bed linens, new furniture (desk, closet, nightstands), etc.  Also our room had a mini fridge and microwave, which we didn't use either.One thing we found odd was that the TV wouldn't turn on the first night, upon closer inspection, it wasn't plugged in!  I guess we were the 1st to use it?!The housekeeping was good on the only day we came back, they set out fresh towels, made the bed, and took the trash. -our room was as good as the beginning.The one thing I have to say is that I wish they paid closer attention to cleaning, the tub could have used a better wash.The morning we were getting ready to leave, there was a cricket in the light fixture above the bathroom sink vanity.  I don't think it was there the whole time we were, but I still wonder how it even got in there because we were on the 1st floor of a 2 story building.All in all, I would say this is good for a quick trip and if you can get a good deal, I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r218479366-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218479366</t>
+  </si>
+  <si>
+    <t>07/30/2014</t>
+  </si>
+  <si>
+    <t>Close to AT&amp;T Stadium (Football) &amp; Globe Life Park (Baseball)</t>
+  </si>
+  <si>
+    <t>Pretty much of a letdown. Upon arrival, we had to guess where the office was because there weren't any signs. This is a rather large hotel and a first surprise was that there is only one (1) ice machine for the entire guest rooms. The office and check-in desk is not open 24/7 as most hotel office's are. In my humble opinion, this is unacceptable. Rooms are average, but just barely. Ours did not have any hand soap at the sink. The grab bar in the shower has loose fittings and the bathroom door sticks and has paint chipping off. The room key had a hard time unlocking the door and the door itself sticks when closing. This hotel is close to railroad tracks and my wife told me she heard at least one train during the night blowing its whistle. The property is old and the second floor landing was at an angle at the stair junction. While it is very close to both professional sports parks (football &amp; baseball), if you're looking for newer accomodations, i'd suggest finding another property. There are numerous in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Front Office Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2014</t>
+  </si>
+  <si>
+    <t>Pretty much of a letdown. Upon arrival, we had to guess where the office was because there weren't any signs. This is a rather large hotel and a first surprise was that there is only one (1) ice machine for the entire guest rooms. The office and check-in desk is not open 24/7 as most hotel office's are. In my humble opinion, this is unacceptable. Rooms are average, but just barely. Ours did not have any hand soap at the sink. The grab bar in the shower has loose fittings and the bathroom door sticks and has paint chipping off. The room key had a hard time unlocking the door and the door itself sticks when closing. This hotel is close to railroad tracks and my wife told me she heard at least one train during the night blowing its whistle. The property is old and the second floor landing was at an angle at the stair junction. While it is very close to both professional sports parks (football &amp; baseball), if you're looking for newer accomodations, i'd suggest finding another property. There are numerous in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r218333973-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>218333973</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Two night stay</t>
+  </si>
+  <si>
+    <t>My family came to the area to go to a Rangers game.  When we walked in there was a young man working the front and a room full of people waiting.  The senior clerk, Ravi, walked in and gave one of the couples waiting in front of us a difficult time.  He then yelled at the young clerk, through something on the counter, and stated money was going to be taken from his check.  Their excuse for difficulties was that management had changed a month earlier.  My air conditioner did not work very well.  If you leave it on cool all day then you will be fine.  I turned mine off in the morning as we left.  When we came back in the evening it took about two hours to cool down.  My fridge did not work.  There is only one ice machine for the facility, which did not work.  Rooms are really small.  There is not very much personal space.  If you have kids that need a little room to move around I do not recommend this place.  On the other hand, everything in my parents room worked fine.  I don't plan to ever stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>My family came to the area to go to a Rangers game.  When we walked in there was a young man working the front and a room full of people waiting.  The senior clerk, Ravi, walked in and gave one of the couples waiting in front of us a difficult time.  He then yelled at the young clerk, through something on the counter, and stated money was going to be taken from his check.  Their excuse for difficulties was that management had changed a month earlier.  My air conditioner did not work very well.  If you leave it on cool all day then you will be fine.  I turned mine off in the morning as we left.  When we came back in the evening it took about two hours to cool down.  My fridge did not work.  There is only one ice machine for the facility, which did not work.  Rooms are really small.  There is not very much personal space.  If you have kids that need a little room to move around I do not recommend this place.  On the other hand, everything in my parents room worked fine.  I don't plan to ever stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r207932149-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>207932149</t>
+  </si>
+  <si>
+    <t>05/29/2014</t>
+  </si>
+  <si>
+    <t>Dangerous area to lay your head</t>
+  </si>
+  <si>
+    <t>I am really confused by the reviews here.  The Quality Inn sign was a temporary canvas covering another sign.  Before we could get to the room we saw some shady characters hanging around the parking lot and it was one of those lock the door moments.  The room was nothing better to look and had a strong bleach smell and a non working door.  This was the end of our "stay" and got our money back. $15 more and we stayed 2 blocks away at a Holiday Inn Express.  We were later informed by locals this is a hot spot for hookers and hourly rentals.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded July 24, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 24, 2014</t>
+  </si>
+  <si>
+    <t>I am really confused by the reviews here.  The Quality Inn sign was a temporary canvas covering another sign.  Before we could get to the room we saw some shady characters hanging around the parking lot and it was one of those lock the door moments.  The room was nothing better to look and had a strong bleach smell and a non working door.  This was the end of our "stay" and got our money back. $15 more and we stayed 2 blocks away at a Holiday Inn Express.  We were later informed by locals this is a hot spot for hookers and hourly rentals.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r205410195-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>205410195</t>
+  </si>
+  <si>
+    <t>05/13/2014</t>
+  </si>
+  <si>
+    <t>final four weekend</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with another couple for the final four weekend.  We chose this facility for it's location to AT&amp;T stadium.  The walk from this hotel to the stadium took between 1/2 an hour and 45 minutes which is pretty good.  I would advise people that this is worthwhile in itself because you can't get into a taxi in Arlington for less than 35 bucks.  As long as you are staying here because you just need a place to lay your head at night then there is nothing wrong with this hotel.  Everything was clean and up to the standard that you should expect for this price.  I would definitely stay here again when attending any event at the stadium or the ball park.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel with another couple for the final four weekend.  We chose this facility for it's location to AT&amp;T stadium.  The walk from this hotel to the stadium took between 1/2 an hour and 45 minutes which is pretty good.  I would advise people that this is worthwhile in itself because you can't get into a taxi in Arlington for less than 35 bucks.  As long as you are staying here because you just need a place to lay your head at night then there is nothing wrong with this hotel.  Everything was clean and up to the standard that you should expect for this price.  I would definitely stay here again when attending any event at the stadium or the ball park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r201042232-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>201042232</t>
+  </si>
+  <si>
+    <t>04/14/2014</t>
+  </si>
+  <si>
+    <t>Final Four Trip</t>
+  </si>
+  <si>
+    <t>Front desk service was very helpful.  The continental breakfast was not bad but they were adamant on their times of service.  As soon as the end time came, everything was taken from the dining room as soon as possible.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, General Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded April 26, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2014</t>
+  </si>
+  <si>
+    <t>Front desk service was very helpful.  The continental breakfast was not bad but they were adamant on their times of service.  As soon as the end time came, everything was taken from the dining room as soon as possible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r200533239-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>200533239</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Decent location and good value</t>
+  </si>
+  <si>
+    <t>We needed a last minute hotel for a trip where we would be attending games at the AT&amp;T stadium.  This hotel was cheap, clean and realitively close to the stadium. We were able to walk to and from without any problems.  If you are looking for a cheap, clean hotel, I recommend this one.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded April 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded April 11, 2014</t>
+  </si>
+  <si>
+    <t>We needed a last minute hotel for a trip where we would be attending games at the AT&amp;T stadium.  This hotel was cheap, clean and realitively close to the stadium. We were able to walk to and from without any problems.  If you are looking for a cheap, clean hotel, I recommend this one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r198979148-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>198979148</t>
+  </si>
+  <si>
+    <t>03/27/2014</t>
+  </si>
+  <si>
+    <t>Last minute stay.... Good Choice</t>
+  </si>
+  <si>
+    <t>We decided to stay here last minute &amp; needed something in the area.  We got a good deal on the suite so decided to get it so that boys could enjoy the extra room. The 2 room suite included a sofa bed, tv, &amp; table in one room &amp; 2 comfy queen beds &amp; bathroom in the other room. Personally I feel the sofa bed should be replaced but my teenage son didn't want to share a bed so he toughed it out. There was no bedding for the sofa bed in the room so the boys had to go in search of some late at night.  The queen beds are too big for the room so it was a little tight but since we were only there for 1 night we preferred the size of the bed over the size of the room but others staying longer may not think the same. If we are back in the area for another stay we would stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>Quality I, Guest Relations Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded March 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded March 28, 2014</t>
+  </si>
+  <si>
+    <t>We decided to stay here last minute &amp; needed something in the area.  We got a good deal on the suite so decided to get it so that boys could enjoy the extra room. The 2 room suite included a sofa bed, tv, &amp; table in one room &amp; 2 comfy queen beds &amp; bathroom in the other room. Personally I feel the sofa bed should be replaced but my teenage son didn't want to share a bed so he toughed it out. There was no bedding for the sofa bed in the room so the boys had to go in search of some late at night.  The queen beds are too big for the room so it was a little tight but since we were only there for 1 night we preferred the size of the bed over the size of the room but others staying longer may not think the same. If we are back in the area for another stay we would stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r198942802-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>198942802</t>
+  </si>
+  <si>
+    <t>Never stay at this hotel!</t>
+  </si>
+  <si>
+    <t>I've never before written any online review, but this hotel was awful. Rooms were very small, excessive noise (voices right outside your door - creepy), and train blowing its whistle throughout the night. We were staying from out of town due to a funeral, and I had elderly family members with me. They could not sleep or move about the room easily, which I told to the clerk and assistant manager.Management refused a refund for 2nd night; had to pay for it even though we left at 9:45 AM to stay at a different hotel. They would not discuss it with me at the desk, and in fact, the assistant manager kept trying to leave as if he was getting away from me. They would not give me check out paperwork, and when I tried to follow up via phone through various avenues afterward, I still had no way to get refunded for the second night due as a result of this dissatisfying experience.The General Manager refused to refund the second night. Never stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>I've never before written any online review, but this hotel was awful. Rooms were very small, excessive noise (voices right outside your door - creepy), and train blowing its whistle throughout the night. We were staying from out of town due to a funeral, and I had elderly family members with me. They could not sleep or move about the room easily, which I told to the clerk and assistant manager.Management refused a refund for 2nd night; had to pay for it even though we left at 9:45 AM to stay at a different hotel. They would not discuss it with me at the desk, and in fact, the assistant manager kept trying to leave as if he was getting away from me. They would not give me check out paperwork, and when I tried to follow up via phone through various avenues afterward, I still had no way to get refunded for the second night due as a result of this dissatisfying experience.The General Manager refused to refund the second night. Never stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r190091567-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>190091567</t>
+  </si>
+  <si>
+    <t>01/07/2014</t>
+  </si>
+  <si>
+    <t>Good room with a good price</t>
+  </si>
+  <si>
+    <t>This was a clean room and close to A T &amp; T Stadium and Six Flags. The staff was very helpful especially the two young ladies at the front desk. Galina, works on the day shift,  I didn't get the name of the young lady on the evening shift, but both were able to answer all my questions. I enjoyed the complementry hot breakfast. I will stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded January 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2014</t>
+  </si>
+  <si>
+    <t>This was a clean room and close to A T &amp; T Stadium and Six Flags. The staff was very helpful especially the two young ladies at the front desk. Galina, works on the day shift,  I didn't get the name of the young lady on the evening shift, but both were able to answer all my questions. I enjoyed the complementry hot breakfast. I will stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r190056610-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>190056610</t>
+  </si>
+  <si>
+    <t>Cheap and Clean</t>
+  </si>
+  <si>
+    <t>Very clean, excellent price.  Freindly help and easy walk to stadium.  Walk was a little dark so if you are along i would suggest a cab.  if you are expecting luxury this is not the place but if you expect super clean rooms at a very decent price, this is the place.MoreShow less</t>
+  </si>
+  <si>
+    <t>Very clean, excellent price.  Freindly help and easy walk to stadium.  Walk was a little dark so if you are along i would suggest a cab.  if you are expecting luxury this is not the place but if you expect super clean rooms at a very decent price, this is the place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r189664498-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>189664498</t>
+  </si>
+  <si>
+    <t>01/04/2014</t>
+  </si>
+  <si>
+    <t>Great value and location!</t>
+  </si>
+  <si>
+    <t>Stayed while attending the Cotton Bowl and found a great place. Although the room is somewhat small, everything was clean.  The facilities are updated inside and out. A small breakfast was provided and the coffee was really good. I definitely would stay again! MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded January 5, 2014</t>
+  </si>
+  <si>
+    <t>Responded January 5, 2014</t>
+  </si>
+  <si>
+    <t>Stayed while attending the Cotton Bowl and found a great place. Although the room is somewhat small, everything was clean.  The facilities are updated inside and out. A small breakfast was provided and the coffee was really good. I definitely would stay again! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186787247-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186787247</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service!!!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I were visiting for the weekend due to a wedding. Upon arrival, checking in at the front desk, we were met by the most friendliness &amp; knowledgeable desk clerk...Galina Jennifer Brewer! Not only was Galina friendly, she was also so very helpful. We had no ideal where to go &amp; what else to do while we were in town. Galina directed us to some very fun &amp; adventurous attractions. Breakfast was always ready &amp; nice. Our time in town was very short but it was truly a pleasure meeting Galina. Thank you for making our 1st time visit a nice one!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded December 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 7, 2013</t>
+  </si>
+  <si>
+    <t>My husband &amp; I were visiting for the weekend due to a wedding. Upon arrival, checking in at the front desk, we were met by the most friendliness &amp; knowledgeable desk clerk...Galina Jennifer Brewer! Not only was Galina friendly, she was also so very helpful. We had no ideal where to go &amp; what else to do while we were in town. Galina directed us to some very fun &amp; adventurous attractions. Breakfast was always ready &amp; nice. Our time in town was very short but it was truly a pleasure meeting Galina. Thank you for making our 1st time visit a nice one!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186345638-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186345638</t>
+  </si>
+  <si>
+    <t>11/30/2013</t>
+  </si>
+  <si>
+    <t>Perfect for game</t>
+  </si>
+  <si>
+    <t>Stayed a couple nights to go to the game at AT&amp;T. Room was small with two twins but worked fine. Breakfast was acceptable and they kept it well stocked, which I've seen other places slack on. Location was great for game and would be for six flags or the rangers as well. Was a walk to the game but not bad. We were on foot and finding a grocery store was tough other than Walmart. There are a few nice bars close, if I had the need I'd stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded December 2, 2013</t>
+  </si>
+  <si>
+    <t>Stayed a couple nights to go to the game at AT&amp;T. Room was small with two twins but worked fine. Breakfast was acceptable and they kept it well stocked, which I've seen other places slack on. Location was great for game and would be for six flags or the rangers as well. Was a walk to the game but not bad. We were on foot and finding a grocery store was tough other than Walmart. There are a few nice bars close, if I had the need I'd stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186267935-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>186267935</t>
+  </si>
+  <si>
+    <t>11/29/2013</t>
+  </si>
+  <si>
+    <t>My trip to the Thanksgiving Day game of the Dallas Cowboys.</t>
+  </si>
+  <si>
+    <t>I enjoyed the fact there was a coffee pot in the room. I also liked there was a computer in the lobby for guests. I stayed at the same place before when it was a Motel 6. You had to go the lobby to get coffee and Wi-Fi was in the room, but you have to pay extra for it.MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded November 30, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2013</t>
+  </si>
+  <si>
+    <t>I enjoyed the fact there was a coffee pot in the room. I also liked there was a computer in the lobby for guests. I stayed at the same place before when it was a Motel 6. You had to go the lobby to get coffee and Wi-Fi was in the room, but you have to pay extra for it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r183424695-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183424695</t>
+  </si>
+  <si>
+    <t>11/03/2013</t>
+  </si>
+  <si>
+    <t>Clean</t>
+  </si>
+  <si>
+    <t>Amazing staff, full breakfast, clean room, great location from sport stadiums and six flags. Free newspaper, full breakfast, wifi, pool (near lobby), express check in! The staff went beyond to welcome us even, if our room wasn't ready @ 9am! Check in is @ 3pm. We were even introduced to the choice enrollment programs they have which I will be putting to use since the quality of our stay was definitely worth our money. The lady at the desk was very friendly and helpful in the morning. Stay here, if you're watching any sporting event or taking the kids to six flags!MoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2013</t>
+  </si>
+  <si>
+    <t>Amazing staff, full breakfast, clean room, great location from sport stadiums and six flags. Free newspaper, full breakfast, wifi, pool (near lobby), express check in! The staff went beyond to welcome us even, if our room wasn't ready @ 9am! Check in is @ 3pm. We were even introduced to the choice enrollment programs they have which I will be putting to use since the quality of our stay was definitely worth our money. The lady at the desk was very friendly and helpful in the morning. Stay here, if you're watching any sporting event or taking the kids to six flags!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r183080038-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>183080038</t>
+  </si>
+  <si>
+    <t>10/31/2013</t>
+  </si>
+  <si>
+    <t>Nice place</t>
+  </si>
+  <si>
+    <t>This is the old Motel 6. They remodeled it very nice. Checked in Friday night and desk clerk was very nice. Had to make a complaint call and they took care of it right away. We stayed til Sunday was a great stay and staff was very friendly. Great price and locationMoreShow less</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded November 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2013</t>
+  </si>
+  <si>
+    <t>This is the old Motel 6. They remodeled it very nice. Checked in Friday night and desk clerk was very nice. Had to make a complaint call and they took care of it right away. We stayed til Sunday was a great stay and staff was very friendly. Great price and locationMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r182334736-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>182334736</t>
+  </si>
+  <si>
+    <t>10/25/2013</t>
+  </si>
+  <si>
+    <t>Great place; however, not handicapped friendly</t>
+  </si>
+  <si>
+    <t>I took my adult nephew who has special needs on a trip to celebrate his birthday.  He requires a roll in shower (not possible to get into a tub) and we took extra special care to achieve this situation. We even spoke to the registration clerk at this location and she stated what we needed to do to satisfy our needs.  We arrived to find a very nice place, large suite room, comfortable bed, clean, well maintained, friendly personal, wonderful breakfast, and great location.......still did not meet our needs.  If I were to come to the Arlington and Dallas area with no handicap needs I would definitely here. Great place for the money.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded October 26, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2013</t>
+  </si>
+  <si>
+    <t>I took my adult nephew who has special needs on a trip to celebrate his birthday.  He requires a roll in shower (not possible to get into a tub) and we took extra special care to achieve this situation. We even spoke to the registration clerk at this location and she stated what we needed to do to satisfy our needs.  We arrived to find a very nice place, large suite room, comfortable bed, clean, well maintained, friendly personal, wonderful breakfast, and great location.......still did not meet our needs.  If I were to come to the Arlington and Dallas area with no handicap needs I would definitely here. Great place for the money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r176598698-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>176598698</t>
+  </si>
+  <si>
+    <t>09/10/2013</t>
+  </si>
+  <si>
+    <t>Spacious rooms, great pool, helpful staff- would stay again”</t>
+  </si>
+  <si>
+    <t>Stayed here for one night so that we would go to Six Flags, the location is perfect and the hotel provide a Free Breakfast in morning it was great nice and clean lobby with amazing staff. Lovely pool area, nice and quiet . Rooms are clean and spacious with a comfortable bed. The staff are friendly and helpful. Would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2013</t>
+  </si>
+  <si>
+    <t>Stayed here for one night so that we would go to Six Flags, the location is perfect and the hotel provide a Free Breakfast in morning it was great nice and clean lobby with amazing staff. Lovely pool area, nice and quiet . Rooms are clean and spacious with a comfortable bed. The staff are friendly and helpful. Would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r174676501-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>174676501</t>
+  </si>
+  <si>
+    <t>08/29/2013</t>
+  </si>
+  <si>
+    <t>Nice clean rooms</t>
+  </si>
+  <si>
+    <t>Enjoyed stay at this hotel as the rooms were very clean and the bed was super!enjoyed the pool as it was super nice on hot day!the convience of location of this hotel was reason i stayed as i went to cowboys game only 2 miles away.Will stay next time in town for a game. MoreShow less</t>
+  </si>
+  <si>
+    <t>Enjoyed stay at this hotel as the rooms were very clean and the bed was super!enjoyed the pool as it was super nice on hot day!the convience of location of this hotel was reason i stayed as i went to cowboys game only 2 miles away.Will stay next time in town for a game. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r170881705-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
+  </si>
+  <si>
+    <t>170881705</t>
+  </si>
+  <si>
+    <t>08/05/2013</t>
+  </si>
+  <si>
+    <t>Renovated Budget Hotel</t>
+  </si>
+  <si>
+    <t>This used to be a hotel 6 until recently. The property has been renovated with new finishes and furniture and tv;s. We did not see any more construction on property while we stayed.
+My wife and I stayed here for one night to be close to the cowboys stadium for a soccer match. Location was good. We decided to walk to the stadium and got a pedi-cab half way down from the hotel the rest of the way for $5 bucks a person, beats the $30-$60 parking fees. 
+We had a one bed room which was on the smaller side of a usual room. Like I said before the room had been newly remodeled. Looked like the whole room had been replaced since everything looked new not refurbished. It came supplied with a microwave, refridgerator, and LCD tv. All worked great since again, there were new.
+The hotel offered free breakfast newspapers and coffee in the lobby which had been remodeled as well. Hotel staff was pleasent and helpful. 
+One big complaint which took this rating down was that the bed was dirty when we check-in (hair) we asked for new bedding, which they happily changed the sheets, but the comforter was the item needing to be cleaned. It was late when we got back to the room so we didn't make a fuss, but despite all the other positives my wife will not want to go back for that...This used to be a hotel 6 until recently. The property has been renovated with new finishes and furniture and tv;s. We did not see any more construction on property while we stayed.My wife and I stayed here for one night to be close to the cowboys stadium for a soccer match. Location was good. We decided to walk to the stadium and got a pedi-cab half way down from the hotel the rest of the way for $5 bucks a person, beats the $30-$60 parking fees. We had a one bed room which was on the smaller side of a usual room. Like I said before the room had been newly remodeled. Looked like the whole room had been replaced since everything looked new not refurbished. It came supplied with a microwave, refridgerator, and LCD tv. All worked great since again, there were new.The hotel offered free breakfast newspapers and coffee in the lobby which had been remodeled as well. Hotel staff was pleasent and helpful. One big complaint which took this rating down was that the bed was dirty when we check-in (hair) we asked for new bedding, which they happily changed the sheets, but the comforter was the item needing to be cleaned. It was late when we got back to the room so we didn't make a fuss, but despite all the other positives my wife will not want to go back for that reason.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>Quality I, Manager at Days Inn &amp; Suites by Wyndham Arlington Near Six Flags, responded to this reviewResponded September 13, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 13, 2013</t>
+  </si>
+  <si>
+    <t>This used to be a hotel 6 until recently. The property has been renovated with new finishes and furniture and tv;s. We did not see any more construction on property while we stayed.
+My wife and I stayed here for one night to be close to the cowboys stadium for a soccer match. Location was good. We decided to walk to the stadium and got a pedi-cab half way down from the hotel the rest of the way for $5 bucks a person, beats the $30-$60 parking fees. 
+We had a one bed room which was on the smaller side of a usual room. Like I said before the room had been newly remodeled. Looked like the whole room had been replaced since everything looked new not refurbished. It came supplied with a microwave, refridgerator, and LCD tv. All worked great since again, there were new.
+The hotel offered free breakfast newspapers and coffee in the lobby which had been remodeled as well. Hotel staff was pleasent and helpful. 
+One big complaint which took this rating down was that the bed was dirty when we check-in (hair) we asked for new bedding, which they happily changed the sheets, but the comforter was the item needing to be cleaned. It was late when we got back to the room so we didn't make a fuss, but despite all the other positives my wife will not want to go back for that...This used to be a hotel 6 until recently. The property has been renovated with new finishes and furniture and tv;s. We did not see any more construction on property while we stayed.My wife and I stayed here for one night to be close to the cowboys stadium for a soccer match. Location was good. We decided to walk to the stadium and got a pedi-cab half way down from the hotel the rest of the way for $5 bucks a person, beats the $30-$60 parking fees. We had a one bed room which was on the smaller side of a usual room. Like I said before the room had been newly remodeled. Looked like the whole room had been replaced since everything looked new not refurbished. It came supplied with a microwave, refridgerator, and LCD tv. All worked great since again, there were new.The hotel offered free breakfast newspapers and coffee in the lobby which had been remodeled as well. Hotel staff was pleasent and helpful. One big complaint which took this rating down was that the bed was dirty when we check-in (hair) we asked for new bedding, which they happily changed the sheets, but the comforter was the item needing to be cleaned. It was late when we got back to the room so we didn't make a fuss, but despite all the other positives my wife will not want to go back for that reason.More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2096,4043 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>75</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" t="s">
+        <v>75</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>91</v>
+      </c>
+      <c r="O9" t="s">
+        <v>61</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>75</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>2</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>104</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+      <c r="L11" t="s">
+        <v>108</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>109</v>
+      </c>
+      <c r="O11" t="s">
+        <v>68</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+      <c r="L12" t="s">
+        <v>114</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>109</v>
+      </c>
+      <c r="O12" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>115</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>117</v>
+      </c>
+      <c r="K13" t="s">
+        <v>118</v>
+      </c>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>129</v>
+      </c>
+      <c r="J15" t="s">
+        <v>130</v>
+      </c>
+      <c r="K15" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" t="s">
+        <v>132</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>75</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="J16" t="s">
+        <v>135</v>
+      </c>
+      <c r="K16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L16" t="s">
+        <v>137</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>138</v>
+      </c>
+      <c r="O16" t="s">
+        <v>139</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>140</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J17" t="s">
+        <v>142</v>
+      </c>
+      <c r="K17" t="s">
+        <v>143</v>
+      </c>
+      <c r="L17" t="s">
+        <v>144</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>138</v>
+      </c>
+      <c r="O17" t="s">
+        <v>139</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>145</v>
+      </c>
+      <c r="X17" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>149</v>
+      </c>
+      <c r="J18" t="s">
+        <v>150</v>
+      </c>
+      <c r="K18" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s">
+        <v>152</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>138</v>
+      </c>
+      <c r="O18" t="s">
+        <v>61</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>145</v>
+      </c>
+      <c r="X18" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>155</v>
+      </c>
+      <c r="J19" t="s">
+        <v>156</v>
+      </c>
+      <c r="K19" t="s">
+        <v>157</v>
+      </c>
+      <c r="L19" t="s">
+        <v>158</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O19" t="s">
+        <v>68</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>145</v>
+      </c>
+      <c r="X19" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>161</v>
+      </c>
+      <c r="J20" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" t="s">
+        <v>163</v>
+      </c>
+      <c r="L20" t="s">
+        <v>164</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>165</v>
+      </c>
+      <c r="O20" t="s">
+        <v>139</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X20" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>167</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>168</v>
+      </c>
+      <c r="J21" t="s">
+        <v>169</v>
+      </c>
+      <c r="K21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L21" t="s">
+        <v>171</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>172</v>
+      </c>
+      <c r="O21" t="s">
+        <v>139</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>5</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>173</v>
+      </c>
+      <c r="X21" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>177</v>
+      </c>
+      <c r="J22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K22" t="s">
+        <v>179</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>165</v>
+      </c>
+      <c r="O22" t="s">
+        <v>68</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>181</v>
+      </c>
+      <c r="X22" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>185</v>
+      </c>
+      <c r="J23" t="s">
+        <v>186</v>
+      </c>
+      <c r="K23" t="s">
+        <v>187</v>
+      </c>
+      <c r="L23" t="s">
+        <v>188</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="s">
+        <v>165</v>
+      </c>
+      <c r="O23" t="s">
+        <v>75</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>190</v>
+      </c>
+      <c r="J24" t="s">
+        <v>191</v>
+      </c>
+      <c r="K24" t="s">
+        <v>192</v>
+      </c>
+      <c r="L24" t="s">
+        <v>193</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>194</v>
+      </c>
+      <c r="O24" t="s">
+        <v>75</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>196</v>
+      </c>
+      <c r="J25" t="s">
+        <v>197</v>
+      </c>
+      <c r="K25" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>200</v>
+      </c>
+      <c r="O25" t="s">
+        <v>68</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>202</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>203</v>
+      </c>
+      <c r="J26" t="s">
+        <v>204</v>
+      </c>
+      <c r="K26" t="s">
+        <v>205</v>
+      </c>
+      <c r="L26" t="s">
+        <v>206</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>207</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>208</v>
+      </c>
+      <c r="J27" t="s">
+        <v>209</v>
+      </c>
+      <c r="K27" t="s">
+        <v>210</v>
+      </c>
+      <c r="L27" t="s">
+        <v>211</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1</v>
+      </c>
+      <c r="N27" t="s">
+        <v>212</v>
+      </c>
+      <c r="O27" t="s">
+        <v>68</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="n">
+        <v>1</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>2</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>1</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>214</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>215</v>
+      </c>
+      <c r="J28" t="s">
+        <v>216</v>
+      </c>
+      <c r="K28" t="s">
+        <v>217</v>
+      </c>
+      <c r="L28" t="s">
+        <v>218</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>212</v>
+      </c>
+      <c r="O28" t="s">
+        <v>139</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>219</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>220</v>
+      </c>
+      <c r="J29" t="s">
+        <v>221</v>
+      </c>
+      <c r="K29" t="s">
+        <v>222</v>
+      </c>
+      <c r="L29" t="s">
+        <v>223</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>224</v>
+      </c>
+      <c r="O29" t="s">
+        <v>75</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>225</v>
+      </c>
+      <c r="X29" t="s">
+        <v>226</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>228</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>229</v>
+      </c>
+      <c r="J30" t="s">
+        <v>230</v>
+      </c>
+      <c r="K30" t="s">
+        <v>231</v>
+      </c>
+      <c r="L30" t="s">
+        <v>232</v>
+      </c>
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
+        <v>224</v>
+      </c>
+      <c r="O30" t="s">
+        <v>75</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="n">
+        <v>3</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>3</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>236</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>237</v>
+      </c>
+      <c r="J31" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" t="s">
+        <v>239</v>
+      </c>
+      <c r="L31" t="s">
+        <v>240</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>241</v>
+      </c>
+      <c r="O31" t="s">
+        <v>75</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>242</v>
+      </c>
+      <c r="X31" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>245</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>246</v>
+      </c>
+      <c r="J32" t="s">
+        <v>247</v>
+      </c>
+      <c r="K32" t="s">
+        <v>248</v>
+      </c>
+      <c r="L32" t="s">
+        <v>249</v>
+      </c>
+      <c r="M32" t="n">
+        <v>1</v>
+      </c>
+      <c r="N32" t="s">
+        <v>241</v>
+      </c>
+      <c r="O32" t="s">
+        <v>61</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>250</v>
+      </c>
+      <c r="X32" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>253</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>254</v>
+      </c>
+      <c r="J33" t="s">
+        <v>255</v>
+      </c>
+      <c r="K33" t="s">
+        <v>256</v>
+      </c>
+      <c r="L33" t="s">
+        <v>257</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>241</v>
+      </c>
+      <c r="O33" t="s">
+        <v>68</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>250</v>
+      </c>
+      <c r="X33" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>259</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>260</v>
+      </c>
+      <c r="J34" t="s">
+        <v>261</v>
+      </c>
+      <c r="K34" t="s">
+        <v>262</v>
+      </c>
+      <c r="L34" t="s">
+        <v>263</v>
+      </c>
+      <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>264</v>
+      </c>
+      <c r="O34" t="s">
+        <v>75</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="s"/>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>265</v>
+      </c>
+      <c r="X34" t="s">
+        <v>266</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>268</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+      <c r="K35" t="s">
+        <v>271</v>
+      </c>
+      <c r="L35" t="s">
+        <v>272</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>273</v>
+      </c>
+      <c r="O35" t="s">
+        <v>75</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>274</v>
+      </c>
+      <c r="X35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>277</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>278</v>
+      </c>
+      <c r="J36" t="s">
+        <v>279</v>
+      </c>
+      <c r="K36" t="s">
+        <v>280</v>
+      </c>
+      <c r="L36" t="s">
+        <v>281</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>282</v>
+      </c>
+      <c r="O36" t="s">
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>283</v>
+      </c>
+      <c r="X36" t="s">
+        <v>284</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>286</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>287</v>
+      </c>
+      <c r="J37" t="s">
+        <v>288</v>
+      </c>
+      <c r="K37" t="s">
+        <v>289</v>
+      </c>
+      <c r="L37" t="s">
+        <v>290</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>291</v>
+      </c>
+      <c r="O37" t="s">
+        <v>68</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>4</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>292</v>
+      </c>
+      <c r="X37" t="s">
+        <v>293</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>295</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>296</v>
+      </c>
+      <c r="J38" t="s">
+        <v>297</v>
+      </c>
+      <c r="K38" t="s">
+        <v>298</v>
+      </c>
+      <c r="L38" t="s">
+        <v>299</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>300</v>
+      </c>
+      <c r="O38" t="s">
+        <v>68</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="n">
+        <v>3</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>301</v>
+      </c>
+      <c r="X38" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>304</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>305</v>
+      </c>
+      <c r="J39" t="s">
+        <v>306</v>
+      </c>
+      <c r="K39" t="s">
+        <v>307</v>
+      </c>
+      <c r="L39" t="s">
+        <v>308</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>309</v>
+      </c>
+      <c r="O39" t="s">
+        <v>139</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>313</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>314</v>
+      </c>
+      <c r="J40" t="s">
+        <v>315</v>
+      </c>
+      <c r="K40" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" t="s">
+        <v>317</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s">
+        <v>318</v>
+      </c>
+      <c r="O40" t="s">
+        <v>139</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>4</v>
+      </c>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>319</v>
+      </c>
+      <c r="X40" t="s">
+        <v>320</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>322</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>323</v>
+      </c>
+      <c r="J41" t="s">
+        <v>324</v>
+      </c>
+      <c r="K41" t="s">
+        <v>325</v>
+      </c>
+      <c r="L41" t="s">
+        <v>326</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>327</v>
+      </c>
+      <c r="O41" t="s">
+        <v>53</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>328</v>
+      </c>
+      <c r="X41" t="s">
+        <v>329</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>331</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>332</v>
+      </c>
+      <c r="J42" t="s">
+        <v>333</v>
+      </c>
+      <c r="K42" t="s">
+        <v>334</v>
+      </c>
+      <c r="L42" t="s">
+        <v>335</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>336</v>
+      </c>
+      <c r="O42" t="s">
+        <v>75</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>337</v>
+      </c>
+      <c r="X42" t="s">
+        <v>338</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>340</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>341</v>
+      </c>
+      <c r="J43" t="s">
+        <v>342</v>
+      </c>
+      <c r="K43" t="s">
+        <v>343</v>
+      </c>
+      <c r="L43" t="s">
+        <v>344</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>336</v>
+      </c>
+      <c r="O43" t="s">
+        <v>75</v>
+      </c>
+      <c r="P43" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>345</v>
+      </c>
+      <c r="X43" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>348</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>349</v>
+      </c>
+      <c r="J44" t="s">
+        <v>350</v>
+      </c>
+      <c r="K44" t="s">
+        <v>351</v>
+      </c>
+      <c r="L44" t="s">
+        <v>352</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>264</v>
+      </c>
+      <c r="O44" t="s">
+        <v>68</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="n">
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>4</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>3</v>
+      </c>
+      <c r="N45" t="s">
+        <v>264</v>
+      </c>
+      <c r="O45" t="s">
+        <v>68</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>3</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>361</v>
+      </c>
+      <c r="X45" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>364</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>365</v>
+      </c>
+      <c r="J46" t="s">
+        <v>366</v>
+      </c>
+      <c r="K46" t="s">
+        <v>367</v>
+      </c>
+      <c r="L46" t="s">
+        <v>368</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>264</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>3</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>361</v>
+      </c>
+      <c r="X46" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>370</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>371</v>
+      </c>
+      <c r="J47" t="s">
+        <v>372</v>
+      </c>
+      <c r="K47" t="s">
+        <v>373</v>
+      </c>
+      <c r="L47" t="s">
+        <v>374</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1</v>
+      </c>
+      <c r="N47" t="s">
+        <v>375</v>
+      </c>
+      <c r="O47" t="s">
+        <v>61</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>1</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>376</v>
+      </c>
+      <c r="X47" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>379</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>380</v>
+      </c>
+      <c r="J48" t="s">
+        <v>381</v>
+      </c>
+      <c r="K48" t="s">
+        <v>382</v>
+      </c>
+      <c r="L48" t="s">
+        <v>383</v>
+      </c>
+      <c r="M48" t="n">
+        <v>3</v>
+      </c>
+      <c r="N48" t="s">
+        <v>384</v>
+      </c>
+      <c r="O48" t="s">
+        <v>61</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>3</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>4</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>376</v>
+      </c>
+      <c r="X48" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>386</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>387</v>
+      </c>
+      <c r="J49" t="s">
+        <v>388</v>
+      </c>
+      <c r="K49" t="s">
+        <v>389</v>
+      </c>
+      <c r="L49" t="s">
+        <v>390</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>384</v>
+      </c>
+      <c r="O49" t="s">
+        <v>75</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>2</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>391</v>
+      </c>
+      <c r="X49" t="s">
+        <v>392</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" t="s">
+        <v>396</v>
+      </c>
+      <c r="K50" t="s">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s">
+        <v>398</v>
+      </c>
+      <c r="M50" t="n">
+        <v>3</v>
+      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>3</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>2</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>399</v>
+      </c>
+      <c r="X50" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>402</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>403</v>
+      </c>
+      <c r="J51" t="s">
+        <v>404</v>
+      </c>
+      <c r="K51" t="s">
+        <v>405</v>
+      </c>
+      <c r="L51" t="s">
+        <v>406</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>407</v>
+      </c>
+      <c r="O51" t="s">
+        <v>75</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
+      <c r="T51" t="s"/>
+      <c r="U51" t="s"/>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>408</v>
+      </c>
+      <c r="X51" t="s">
+        <v>409</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>411</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>412</v>
+      </c>
+      <c r="J52" t="s">
+        <v>404</v>
+      </c>
+      <c r="K52" t="s">
+        <v>413</v>
+      </c>
+      <c r="L52" t="s">
+        <v>414</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>407</v>
+      </c>
+      <c r="O52" t="s">
+        <v>75</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="n">
+        <v>2</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>2</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>2</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>399</v>
+      </c>
+      <c r="X52" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>417</v>
+      </c>
+      <c r="J53" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" t="s">
+        <v>419</v>
+      </c>
+      <c r="L53" t="s">
+        <v>420</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>421</v>
+      </c>
+      <c r="O53" t="s">
+        <v>68</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>3</v>
+      </c>
+      <c r="R53" t="n">
+        <v>4</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>422</v>
+      </c>
+      <c r="X53" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>425</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>426</v>
+      </c>
+      <c r="J54" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" t="s">
+        <v>427</v>
+      </c>
+      <c r="L54" t="s">
+        <v>428</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>421</v>
+      </c>
+      <c r="O54" t="s">
+        <v>68</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>4</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>422</v>
+      </c>
+      <c r="X54" t="s">
+        <v>423</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>430</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>431</v>
+      </c>
+      <c r="J55" t="s">
+        <v>432</v>
+      </c>
+      <c r="K55" t="s">
+        <v>433</v>
+      </c>
+      <c r="L55" t="s">
+        <v>434</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>435</v>
+      </c>
+      <c r="X55" t="s">
+        <v>436</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>438</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>439</v>
+      </c>
+      <c r="J56" t="s">
+        <v>440</v>
+      </c>
+      <c r="K56" t="s">
+        <v>441</v>
+      </c>
+      <c r="L56" t="s">
+        <v>442</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>443</v>
+      </c>
+      <c r="O56" t="s">
+        <v>75</v>
+      </c>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s">
+        <v>444</v>
+      </c>
+      <c r="X56" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y56" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>447</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>448</v>
+      </c>
+      <c r="J57" t="s">
+        <v>449</v>
+      </c>
+      <c r="K57" t="s">
+        <v>450</v>
+      </c>
+      <c r="L57" t="s">
+        <v>451</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>443</v>
+      </c>
+      <c r="O57" t="s">
+        <v>61</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>452</v>
+      </c>
+      <c r="X57" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>455</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>456</v>
+      </c>
+      <c r="J58" t="s">
+        <v>457</v>
+      </c>
+      <c r="K58" t="s">
+        <v>458</v>
+      </c>
+      <c r="L58" t="s">
+        <v>459</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>443</v>
+      </c>
+      <c r="O58" t="s">
+        <v>139</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s">
+        <v>460</v>
+      </c>
+      <c r="X58" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>463</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>464</v>
+      </c>
+      <c r="J59" t="s">
+        <v>465</v>
+      </c>
+      <c r="K59" t="s">
+        <v>466</v>
+      </c>
+      <c r="L59" t="s">
+        <v>467</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>468</v>
+      </c>
+      <c r="X59" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>471</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>472</v>
+      </c>
+      <c r="J60" t="s">
+        <v>473</v>
+      </c>
+      <c r="K60" t="s">
+        <v>474</v>
+      </c>
+      <c r="L60" t="s">
+        <v>475</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>476</v>
+      </c>
+      <c r="X60" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>484</v>
+      </c>
+      <c r="O61" t="s">
+        <v>75</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>5</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>485</v>
+      </c>
+      <c r="X61" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>488</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>489</v>
+      </c>
+      <c r="J62" t="s">
+        <v>490</v>
+      </c>
+      <c r="K62" t="s">
+        <v>491</v>
+      </c>
+      <c r="L62" t="s">
+        <v>492</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>493</v>
+      </c>
+      <c r="O62" t="s">
+        <v>75</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>494</v>
+      </c>
+      <c r="X62" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>497</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>498</v>
+      </c>
+      <c r="J63" t="s">
+        <v>499</v>
+      </c>
+      <c r="K63" t="s">
+        <v>500</v>
+      </c>
+      <c r="L63" t="s">
+        <v>501</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>494</v>
+      </c>
+      <c r="X63" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>6546</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>503</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>504</v>
+      </c>
+      <c r="J64" t="s">
+        <v>505</v>
+      </c>
+      <c r="K64" t="s">
+        <v>506</v>
+      </c>
+      <c r="L64" t="s">
+        <v>507</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>508</v>
+      </c>
+      <c r="O64" t="s">
+        <v>68</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>2</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>509</v>
+      </c>
+      <c r="X64" t="s">
+        <v>510</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_620.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_620.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="574">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Stewart D</t>
+  </si>
+  <si>
     <t>06/16/2018</t>
   </si>
   <si>
@@ -183,6 +186,9 @@
     <t>I would give this place a negative 10 if such a rating was offered.  My stay was the worst I have had in 20 years of business travel.  The room was in poor repair with no weather stripping around the door.  The carpet was filthy, the linens thread bare and the bed uncomfortable.  It is in the flight path of DFW Airport and near a fire station.  Continuous aircraft noise and sirens made rest impossible.  To top it all off,  I was bitten six times by a spider while sleeping. I will sleep in my car next time if this hotel is the only other option.  DO NOT WASTE YOUR MONEY.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r563761122-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -207,6 +213,9 @@
     <t>I recommend to NOT STAY here. We stayed at this location in November 2017. Our room was HORRIBLE. The sofa had gross stains all over it. There was mold in the shower, bugs in the light fixtures and the worst part was the nasty stains on the bedding. I would love to enable to post pictures.  We spoke with the front desk and was told the manager would contact us. The customer service line for Choice Hotels told us we had to go through the  hotel, as each location independently owned and needed to be resolved with that location. We have sent e-mails to Choice with no response. You may ask why the delay on writing a review, we wanted to give the hotel and Choice Hotels the opportunity to reach back to us...which has not happened.  HIGHLY RECOMMENDED THIS HOTEL TO BE SHUT DOWN BY THE HEALTH DEPARTMENT!More</t>
   </si>
   <si>
+    <t>rtindyann</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r540065906-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -225,6 +234,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Lumberjack89</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r496852916-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -246,6 +258,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>edgins48</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r496365445-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>We got in late so we got a room upstairs, the stairs needed some repairs. The room was clean the bed was a little on the hard side but we were thankful to get to sleep. Breakast was limited but good. The office and room with the breakfast had no a.c. so it was a little uncomfortable but not bad.</t>
   </si>
   <si>
+    <t>yinnamkevin</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r495673462-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>Overall the hotel is ok, the breakfast choice was limited. Walkable distance to Jack in the box, the room was small but ok for two people. The curtain was not very good in our room, a bit damage. It was quite close to six flags over texas. Breakfast only serve until 9am, the waffle machine was good. Recommended for short stay.</t>
   </si>
   <si>
+    <t>G8545TZrachelh</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r481689753-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>DianBa</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r474825836-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them...I have to say Kaleb is the best front desk clerk any hotel could possible have. He goes above and beyond every time and is sooooooop genuine. Only bad thing about him is he will not accept a tip. He is the most helpful and person I have ever met at a hotel and that is saying a lot. Wish I could carry him around in my suitcase. Lol. There are 2 other girls there and they are nice and very refreshing too. Even the housekeepers are nice and some of them don't even speak English well. Makes me wonder how the owners found such awesome staff for such a crappy hotel. The toilet seat in room 226 has a black chip on it. The noise in the bathrooms when you flip the switch on is awful, the carpets are caked with dirt (not a reflection on the staff but a reflection on the things they are given to use and I know this because someone who was there with me has a carpet cleaning company and he pointed that out), the water in the face basin and shower in room 128 does not flow out freely and a part of the sink was busted etc. Would have given the hotel a 5 star so many things were not wrong with it. So glad the staff has a great attitude and are bending over backwards. Cannot be easy for them with the hotel in that condition. I cannot say enough great things about Kaleb either.More</t>
   </si>
   <si>
+    <t>Susan L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r473042896-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -330,6 +357,9 @@
     <t>March 2017</t>
   </si>
   <si>
+    <t>Todd-Terri G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r448314539-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -348,6 +378,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Jahir F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r447577540-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -363,6 +396,9 @@
     <t>The staff was helpfull by helping us find a good spot to eat around and room was very clean. Extra towels were available and no cost. The breakfast was like any other place but all in all was a good stay with no problems at all.</t>
   </si>
   <si>
+    <t>Kristils</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r422655759-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -381,6 +417,9 @@
     <t>We checked into this hotel very late on a Saturday night. Front desk clerk was nice but very quiet. Since it was so late, we had to check in through the window so it was hard to hear her. The room itself was very basic. One queen bed, small bathroom, fridge and microwave. I read the reviews so my expectations were very low and I got just what I expected (leave your socks on). The bed was comfortable. The location was perfect for what we were there for (maybe a 2 mile walk to AT&amp;T Stadium). The hotel was full with fellow Cowboys and Bears fans so we felt comfortable (I'm a single Mom traveling with my pre teen son). We felt safe walking to and back from the game. We slept in so I can't comment on the breakfast selection. The day of check out, the front desk clerk (Ryan) was very nice. I printed out our boarding passes and left with no problems. Until about an hour later once I realized I left my jacket hanging in the room. I called the hotel and about 15 minutes later Ryan called me back to let me know that housekeeping found it. We stopped by and grabbed it and left for the airport. So that was nice. My only complaint would be the wifi. Neither one of us could get on it during our two night stay there. More</t>
   </si>
   <si>
+    <t>Todd B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r390988617-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -402,6 +441,9 @@
     <t>Booked on booking.com for 50 USD with breakfast for a Thursday night.  Room 201. I stay in hotels more than 60 nights per year. Up side: close to Attractions, not expensive and breakfast was good.  Downside: dirty and filthy - stains on sheets, stains on walls, cracked tub, damp carpet, dead bugs in light fixtures, Ceiling sheet rock was drooping and looked like it was ready to fall on the bed,  AC didn't work properly and so room was hot and water dripped out onto the carpet so it was damp.  The damp carpet was perfect for cleaning off the soles of my shoes and I could freshen up my bare feet before getting into bed by giving them a wipe in the big wet spot.  Door would not close properly after being forced open by too many police raids.  Basically my room was a hot, damp dirty hole with a door that wouldn't close well.  Ravi Patel - Shame on you.  Choice Hotels - Shame on you.  To call this a hotel "quality" is a lie.  Just because you are near the stadiums, 6 Flags is no reason to sell such substandard rooms.  You can do better, much better.  Try cleaning the rooms, painting the walls, fix the door and AC.  The bacon at breakfast was tasty.  But the TV in the breakfast room did not.Avoid this hotel.More</t>
   </si>
   <si>
+    <t>lsu1919</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r390575892-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -417,6 +459,9 @@
     <t>Pros: A good breakfastGood check in- and friendly serviceRoom was nice and clean-Newly renovated  Refrigerator and microwaveNice bathroomGreat rateGreat free wi-fi- Really surprised how good this was compared to other hotels.Cons: Rooms too small- Do not have more than 2 people in a roomLoud people in the parking lot and knocking at doors in the middle of the nightSo, Overall more pros than cons- so I recommend this property to stay if traveling solo or a couple. Not recommended for families. Well worth the rate you pay!</t>
   </si>
   <si>
+    <t>gprimr1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r388149619-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -438,6 +483,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>rbaat2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r385412972-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -462,6 +510,9 @@
     <t>I stayed there 6/23. Its a great hotel for the price ! ($46) It is small, but big enough if you have 1 or 2 people staying there. The bed was great and big enough for me to sprawl out in. It has a cute basin sink. It is literally minutes away from Six Flags. I had no problems with loud noise and it was a clean room. Has a little fridge and microwave.One or two drawbacks:: They wont let you check in before 3pm. I got there at 2. Most hotels let you check in early if they have a room, come on now. I just went and got something to eat. And the shower faucet is loose. (room 230)More</t>
   </si>
   <si>
+    <t>Perla V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r383827867-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -480,6 +531,9 @@
     <t>I wasn't so sure about this place after reading the reviews and the location. All that went away when I checked in. The clerk was super nice and it went rather quickly. The room was rather small I might add. However it was quite comfortable. The room was very clean and so was the restroom. Great water pressure, working microwave, and good mini fridge. Breakfast was your usual waffles, eggs, toast, bagels, sausage patty, cereal, and yogurt. Check out was quick. Handed over the room key was asked about my stay and it was over in 30 secondsOverall I would recommend this place. Everything was spot on. Don't be afraid reading some of these reviews. This place is nothing like those bad reviews suggestMore</t>
   </si>
   <si>
+    <t>carrieplatt</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r383295613-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -496,6 +550,9 @@
   </si>
   <si>
     <t>As we drove up I questioned my choice.  I asked to see room first.  They kindly offered to show me.  Small room, but very clean.  Beds were comfortable.  AWESOME  hot water and water pressure.  The location was more in industrial area, but was nice and quiet.  After first night I felt safe.  We stayed 4 nights.  Great place for a very great price.  It was for sleeping anyways.  Staff was very nice.  It has been recently painted and newer faucets and toilet.  I was very satisfied.   I just have a hard time paying a hundred dollars or more to sleep.More</t>
+  </si>
+  <si>
+    <t>Teriko</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r366745831-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -519,6 +576,9 @@
   <si>
     <t>I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  
 WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two...I visit the area 2 - 3 times a year, and have been looking for a budget-minded, yet decent 2 star motel.  I've tried a few hotels and motels in the area, and have not been favorably impressed by the ones closest / in Arlington.  While the exterior color palette turned me off, I think I've found my Go To lodging.  (Don't judge a book by its cover!)  Everything has been remodeled.  The lobby and breakfast areas are new and clean.  While I didn't like the wall colors in the room (orange and a weird brown-beige to match the shower tiles), everything was great.  The A/C and all appliances worked.  Appreciated having a one-cup coffee maker in the room so I can have coffee while getting ready.  And a fridge to keep water cold.  Even a microwave!  And an ironing board and iron in the room!  Decent towels.  The bed had 4 plump pillows - no flat, uncomfortable pillows here!  And while sitting on the bed made a weird noise (like the box spring was made of cardboard), the bed was very comfortable.  I slept well.  I never got up in time to take advantage of the breakfast.  Plenty of free parking.  WiFi for my phone worked fine.  I did have a problem one morning calling out from my cell to make local calls.  (Had no problem calling out long distance the night before.)  I have T-Mobile, and only two bars that morning.  So not sure what that was about, and not blaming the hotel, just an oddity to be aware of in case you're a T-Mobile user.  So used the motel's landline to make my local calls.Not sure why I didn't try this motel before - maybe the prices are higher than I usually want to spend.  But whenever I need to come to Arlington again, if this place is $75 or less, I will definitely be staying here.More</t>
+  </si>
+  <si>
+    <t>Brett A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r363433022-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -572,6 +632,9 @@
 All that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had...Let's do some pros/cons here because this property clearly has people wildly on both sides of the fence.Pro- Close to Rangers ballpark and Cowboy stadium (30 minute straight shot walk, very walkable)- Jack in the box 5 minute walk- Can be had very cheap if booked on their website or in advance (the rack rate on event days was x4 what I paid)- Small pool for relaxing on a hot day- Room was clearly a bit old and needed an update but otherwise was very comfortable and cleanCons- It's basically on the highway, so there's not much else accessible nearby without a car, but they do have plenty of parking here if you've rented one- The layout does suck and the big windows facing the bed don't make it SUPER private, though the curtain does work really well- Early check-in cost me $20 (just under half of my room rate) for 2 hours.  When I asked if I could just keep my bag behind the desk at the lobby and go walk around for lunch, I was told there was nowhere to keep it and thus basically forced into paying the $20- Could probably be pretty noisy if you're on the street sideAll that being said, if you're in town for baseball or football (or any other events at those 2 stadiums) why stay anywhere else?  I had a nice time walking to the building, avoided all the crazy parking prices, got some exercise and sun.  It's certainly not 5 stars, but it doesn't need to be.  Just make sure you book in advance to get not only a decent price, a great price.  Wifi was FANTASTIC too, especially after the place I had stayed the night before.  The hotel isn't accessible by transit in any way (maybe no surprise to TX veterans) but it's very easy to find a ride with Uber/Lyft.More</t>
   </si>
   <si>
+    <t>Hockeyman99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r361979463-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -596,6 +659,9 @@
     <t>Went to Dallas / Arlington area for the first time , didn't know where to stay so stayed here , at first appearance looked descent,  until we got into room . First thing noticed was door didn't shut properly in room 120,  then went to go use sink after a few seconds water would slowly drain but took up to a few minutes to do so , toilet wobbled everytime you went to sit on it thought it was going to fall over , all I have to say is you get what you pay for , the one good thing is it close to a lot of things in Arlington , definitely needs to be renovated and updated More</t>
   </si>
   <si>
+    <t>Colby W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r355770999-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -611,6 +677,9 @@
     <t>This motel was only 44$ compared to 148$ for the hotel we normally stay at. The layout is horrible. If u need towels and are located at the back of the property as we were you might as well hop in the car to go get them. Same for breakfast. I will say I was impressed with the breakfast for such a cheap rate. Rooms are small and dated. If you are only needing a place to crash after a long day in the sun for cheap than this is your place. I would stay here again.....</t>
   </si>
   <si>
+    <t>lessard</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r352217640-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -629,6 +698,9 @@
     <t>February 2016</t>
   </si>
   <si>
+    <t>yesayu</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r344114038-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -650,6 +722,9 @@
     <t>Oh boy...where do I begin...We booked package deal on Priceline. Coming from LA for the first time to visit Texas for pleasure....the minute we pulled in, it was obvious that this place is sketchy. Night desk is behind a bullet proof glass-that's promising. When we went upstairs, room 224, we couldn't open the door because it was stuck. Hubby had to put in the effort to open it and it wouldn't close all the way through. We called front desk to tell them about the problem because we were afraid for our safety, Angelica at front desk couldn't care less. All she could muster out is that we would have to pay extra if we switch the room. What a customer service. Room was TINY! Lack of mirrors, lack of lighting. Worst part is that you hear the highway like it's right on top of you. If you're a cheap dinosaur like me, please listen, DO NOT book this place. It's not a hotel, it's a motel. Spend a little extra but stay somewhere more pleasant. More</t>
   </si>
   <si>
+    <t>Danny M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r337850859-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -665,6 +740,9 @@
     <t>The location is a little weird but it seems safe enough &amp; is easy to get to.It's not five star by any means but the room was fairly clean &amp; recently updated.Breakfast was above average for the type of lodging.We would stay again.</t>
   </si>
   <si>
+    <t>Renato A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r327186721-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -686,6 +764,9 @@
     <t>On a late Friday Night, my wife and I stayed here as a budget oriented option to see the Dallas Cowboys that Sunday and I early checked out Saturday morning.Around 4:30AM, we we're woken up by the sound of the police pounding 3-4 doors down and yelling at someone to "Get down!" which ironically ended in celebration 5 minutes later and early morning drinking!We came down for breakfast and it was disgusting. You could squeeze out all sorts of water out of the eggs and the staff members even cut us to get food! Luckily, we were refunded for the nights we didn't use and ultimately the ~100/dollar weekend rate for the place is absolutely not worth it. Spend your money else where and you'll be happier at the end of the day.More</t>
   </si>
   <si>
+    <t>tammyBaltimore_Md</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r325823714-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -701,6 +782,9 @@
     <t>Not badly priced, close to 6 Flags and the stadium, other than that older hotel, rooms are very basic, with refrigerator and microwave, nice size breakfast room area, computer and printer a definite plus!   Staff nice and helpful.  Hotel could use a facelift.</t>
   </si>
   <si>
+    <t>9NUMBERS</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r306056769-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -728,6 +812,9 @@
     <t>I would stay here again, good price and close to AT&amp;T stadium. Very old hotel and there were two dead bugs in the bathroom upon arrival but they were dead and beds were clean and comfortable. Breakfast was hot and staff was very friendly.More</t>
   </si>
   <si>
+    <t>MsDenise2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r302909249-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -752,6 +839,9 @@
     <t>Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed...Mygranddaughter moved to Arlington.Wedrove over 900 miles from Rockford, Ill. After getting her settled in, we went to check in. It was midnite, and of course check in is at 3pm, so therefore the day was over. The clerk was on her cellphone and never looked up! After I got her attention, I asked her if I could see the room before we checked in because there was a couple trying to get a refund because there room was filthy. She said no so we took a chance and checked in. I paid over $230 for 3 nites. The room was clean, thank God, but the exaust fan in the bathroom was caked with dust.The next day we returned to our room about 5pm, and it had not been cleaned. The clerk offered us another room so we took it. The icemaker was not working so you had to go all the way to the office to get ice. There were no batteries in the remote in the second room so my granddaughter had to go and get them out of the first room. The overall grounds are filty. It reminds you of those sleazy 2 hour motels you see on the side of the road.On a good note the breakfast area was very clean, and offered a variety of choices. I would however like to give a compliment to Janet, she was very nice and asked if we needed anything to just ask her. So to sum this up, the rooms are too small for the price, the area is not well lit and if you go by the way it looks on the outside and the unkept surroundings, you will go elsewhere.More</t>
   </si>
   <si>
+    <t>franps</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r293936161-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -779,6 +869,9 @@
     <t>We stayed here for three nights because is close to six flags . The hotel is not over crowded the rooms were clean and the staff was very nice . Angelica was very helpful and Nice the rates were good . Its a good hotel if your bugged is short for a quick vacation. I really recommend it. Hope you guy enjoy it as much as we did  . Tnx More</t>
   </si>
   <si>
+    <t>Brandon C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r291173851-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -803,6 +896,9 @@
     <t>Checked in on a recent vacation due to the fact that it was close to six flags and had reasonable prices. Well....let me tell you....we checked out just as fast as we could! THIS IS WHY.   The smell was sour as we entered the room. Once we turned on the lights we noticed stains on the walls and just about everywhere else. The bedding looked as if it hadn't been washed in weeks. The bathroom had a hole in the wall and the vent was hanging out the ceiling. Bathtub looked to be about as clean as the disgusting toilet.    This place was gross! Do yourself a favor and keep on driving  past this place!More</t>
   </si>
   <si>
+    <t>Niesa V</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r290584236-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -821,6 +917,9 @@
     <t>I enjoyed the trip despite being uncomfortable with my safety. The room had flies in the bathroom as soon as we got there. The sink drainer wasn't working. The room was alright except that the door had appeared to look kicked in. It wouldn't shut all the way and I could see other hotel goers walking by. The next morning my boyfriend came back from a walmart trip and the lock jammed. We spent a good 15 minutes trying to jam the lock back into the door to shut it. The breakfast was either under cooked or over cooked. I would not recommend this hotel.More</t>
   </si>
   <si>
+    <t>TravelGirlVee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r281928441-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -848,6 +947,9 @@
     <t>I honestly do not understand where people are getting the 4-5 star ratings from. I had a terrible experience. When we first got there the looks were not the best but I figured that would be the case due to the low pricing I found. We checked in and it was pretty good. Then we drove around back to our room. People were hanging out in the parking lot, looking shady. Now I didn't care that much because they can't help the people who were there/ around there. We got inside only to be greeted by a small room, a bathroom with many hairs and stains everywhere, and a bed with sheds that looked like they haven't been washed in months. The worst part? Roaches everywhere. Not only on the walls, but there were two (not one roach, BUT TWO.) in the bed. Yes, under the blankets and comforter. Ew. The room wasn't pleasant. Paint peeling off the walls, the room reeking of smoke, even though it was suppose to be a smoke free room, and lots of poor cleaning. Could not get a hold of anyone at the front office via phone. Was very close to Six Flags, but that's about it in the way of good things about the hotel. I hope they someday shape up because they could make some good money being that close in proximity to Six FlagsMore</t>
   </si>
   <si>
+    <t>Mary C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r273169653-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -875,6 +977,9 @@
     <t>We stayed at the Quality Inn across from Six Flags park. I booked through Choice Hotels. I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  The door was also difficult to open and we had to slam it to make sure it was closed completely The light in the bedroom also did not work and even though we reported it, no one fixed it. However, it was clean and the heat and bathroom all worked well. If I was in the same situation, looking for absolute lowest price I'd stay here again. But to pay regular rates, I would probably go elsewhere.It was close to all the area attractions and if you are just looking for a place to sleep and have a great breakfast this is the place for you.More</t>
   </si>
   <si>
+    <t>biggsy3</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r268197919-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -902,6 +1007,9 @@
     <t>We stayed here for the acm awards and fest.  it was close to restaurants and the stadiums.  there was no problems.  reasonably priced, clean rooms. beds were comfortable.  the room was maybe a little small for a family, but fine for two.More</t>
   </si>
   <si>
+    <t>David76054</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r257506856-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -929,6 +1037,9 @@
     <t>We stayed at the Quality Inn across from Six Flags park.  I booked through Priceline Name your own price, so I got well below the standard rack rate.  I was disappointed at the size of the room (very small) and thus did not have a couch or easy chair.  However, it was clean and the heat and bathroom all worked well.  If I was in the same situation, looking for absolute lowest price I'd stay here again.  But to pay regular rates, I would probably go elsewhere.More</t>
   </si>
   <si>
+    <t>FlyGirl1118</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r249470868-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -983,6 +1094,9 @@
     <t>I paid about 45 dollars a night. I wasn't sure what to expect. I was impressed. Good Things:1.) Centrally located2.) Affordable rates3.) Clean/Comfortable Room4.) A LARGE selection of cable channels. This is a key point for me. 5.) Wifi was actually useable. Another Key Point. Needs Improvement: 1.) Not easy to find. Hotel could spend a few bucks to replace the lights in their signs. Note to Travelers: This hotel borders an active Union Pacific Railroad industrial spur. The spur is served by at least 1 daily switcher which comes through around 7-9 am and there are numerous crossings requiring a horn. I like trains, so this didn't bother me, but it's good to know.More</t>
   </si>
   <si>
+    <t>EdAmyZD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r238148256-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1010,6 +1124,9 @@
     <t>Stayed here for 2 nights. The price was good, and the room was a basic configuration. The breakfast was better than expected. The internet was there but slow and did not always connect. I would stay again, but it would be a little too basic for my wife and family.More</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r226105244-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1037,6 +1154,9 @@
     <t>I stayed here in December 2013 and checked in the night before a big ice/snow storm.  This is an owner / family run hotel that I think used to be a Motel 6.  The rooms are small, but provide great value.  The shower is probably at the tops for any hotel that I have ever stayed at.  Clean rooms.The only problem I really encountered was when the parking lot iced over during my stay.  The owner used what cat litter / rock salt he could get to combat it but it was not quite enough.  So if you are traveling to the winter months and there is an ice storm coming you might want to pack a few bags of cat litter, etc.More</t>
   </si>
   <si>
+    <t>Ray L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r224915222-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1064,6 +1184,9 @@
     <t>The service provided to me by all the hotel staff was great. The motel seemed to renovated recently. My kids enjoyed their stay as well! They have a pool which is really nice and its great for kids to hang out at. The only thing is the pool closes at 9:30.More</t>
   </si>
   <si>
+    <t>Tiffany L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r223054055-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1086,6 +1209,9 @@
   </si>
   <si>
     <t>The hotel is great and the staff is very nice as well. We visited six flags and went to the rangers game. The staff helped us find parking which wasn't too expensive since they didn't provide shuttle to the game.More</t>
+  </si>
+  <si>
+    <t>Stephanie A</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r221854695-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -1122,6 +1248,9 @@
 The housekeeping was good on the only day we came back, they set out fresh towels, made the...I found a reeeeeaaaaaaallllllllly good deal per night at this hotel so I was not expecting much.  I just wanted somewhere good where we could sleep and get ready during our less than than 36 hr long trip to Arlington.  This definitely did the trick.  We checked in at 1 am on a Monday night and that went smooth, checked out at 5 am on Wednesday by leaving our key in the room and out we went. It's right next to a highway which was good for quick access to other places in Dallas and the airport.There is free breakfast from 6:30 am to 10 am I believe, but we didn't get the worm because we were not early birds. haThe rooms are very small, with your vanity right outside the bathroom door and the bathroom had just enough space for a bathtub and toilet.The rooms are newly renovated and look nice with all the modern finishings, carpet, granite counter top, bathroom fixtures, paint, tile floors, bed linens, new furniture (desk, closet, nightstands), etc.  Also our room had a mini fridge and microwave, which we didn't use either.One thing we found odd was that the TV wouldn't turn on the first night, upon closer inspection, it wasn't plugged in!  I guess we were the 1st to use it?!The housekeeping was good on the only day we came back, they set out fresh towels, made the bed, and took the trash. -our room was as good as the beginning.The one thing I have to say is that I wish they paid closer attention to cleaning, the tub could have used a better wash.The morning we were getting ready to leave, there was a cricket in the light fixture above the bathroom sink vanity.  I don't think it was there the whole time we were, but I still wonder how it even got in there because we were on the 1st floor of a 2 story building.All in all, I would say this is good for a quick trip and if you can get a good deal, I recommend it.More</t>
   </si>
   <si>
+    <t>Gary W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r218479366-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1146,6 +1275,9 @@
     <t>Pretty much of a letdown. Upon arrival, we had to guess where the office was because there weren't any signs. This is a rather large hotel and a first surprise was that there is only one (1) ice machine for the entire guest rooms. The office and check-in desk is not open 24/7 as most hotel office's are. In my humble opinion, this is unacceptable. Rooms are average, but just barely. Ours did not have any hand soap at the sink. The grab bar in the shower has loose fittings and the bathroom door sticks and has paint chipping off. The room key had a hard time unlocking the door and the door itself sticks when closing. This hotel is close to railroad tracks and my wife told me she heard at least one train during the night blowing its whistle. The property is old and the second floor landing was at an angle at the stair junction. While it is very close to both professional sports parks (football &amp; baseball), if you're looking for newer accomodations, i'd suggest finding another property. There are numerous in the area.More</t>
   </si>
   <si>
+    <t>Amanda C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r218333973-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1164,6 +1296,9 @@
     <t>My family came to the area to go to a Rangers game.  When we walked in there was a young man working the front and a room full of people waiting.  The senior clerk, Ravi, walked in and gave one of the couples waiting in front of us a difficult time.  He then yelled at the young clerk, through something on the counter, and stated money was going to be taken from his check.  Their excuse for difficulties was that management had changed a month earlier.  My air conditioner did not work very well.  If you leave it on cool all day then you will be fine.  I turned mine off in the morning as we left.  When we came back in the evening it took about two hours to cool down.  My fridge did not work.  There is only one ice machine for the facility, which did not work.  Rooms are really small.  There is not very much personal space.  If you have kids that need a little room to move around I do not recommend this place.  On the other hand, everything in my parents room worked fine.  I don't plan to ever stay here again.More</t>
   </si>
   <si>
+    <t>justllooking</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r207932149-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1191,6 +1326,9 @@
     <t>I am really confused by the reviews here.  The Quality Inn sign was a temporary canvas covering another sign.  Before we could get to the room we saw some shady characters hanging around the parking lot and it was one of those lock the door moments.  The room was nothing better to look and had a strong bleach smell and a non working door.  This was the end of our "stay" and got our money back. $15 more and we stayed 2 blocks away at a Holiday Inn Express.  We were later informed by locals this is a hot spot for hookers and hourly rentals.More</t>
   </si>
   <si>
+    <t>puntacanadian</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r205410195-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1212,6 +1350,9 @@
     <t>We stayed at this hotel with another couple for the final four weekend.  We chose this facility for it's location to AT&amp;T stadium.  The walk from this hotel to the stadium took between 1/2 an hour and 45 minutes which is pretty good.  I would advise people that this is worthwhile in itself because you can't get into a taxi in Arlington for less than 35 bucks.  As long as you are staying here because you just need a place to lay your head at night then there is nothing wrong with this hotel.  Everything was clean and up to the standard that you should expect for this price.  I would definitely stay here again when attending any event at the stadium or the ball park.More</t>
   </si>
   <si>
+    <t>Craig S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r201042232-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1377,9 @@
     <t>Front desk service was very helpful.  The continental breakfast was not bad but they were adamant on their times of service.  As soon as the end time came, everything was taken from the dining room as soon as possible.More</t>
   </si>
   <si>
+    <t>GoCatsBigBlue</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r200533239-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1260,6 +1404,9 @@
     <t>We needed a last minute hotel for a trip where we would be attending games at the AT&amp;T stadium.  This hotel was cheap, clean and realitively close to the stadium. We were able to walk to and from without any problems.  If you are looking for a cheap, clean hotel, I recommend this one.More</t>
   </si>
   <si>
+    <t>JCCEJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r198979148-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1287,6 +1434,9 @@
     <t>We decided to stay here last minute &amp; needed something in the area.  We got a good deal on the suite so decided to get it so that boys could enjoy the extra room. The 2 room suite included a sofa bed, tv, &amp; table in one room &amp; 2 comfy queen beds &amp; bathroom in the other room. Personally I feel the sofa bed should be replaced but my teenage son didn't want to share a bed so he toughed it out. There was no bedding for the sofa bed in the room so the boys had to go in search of some late at night.  The queen beds are too big for the room so it was a little tight but since we were only there for 1 night we preferred the size of the bed over the size of the room but others staying longer may not think the same. If we are back in the area for another stay we would stay here again. More</t>
   </si>
   <si>
+    <t>TDDDFD</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r198942802-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1302,6 +1452,9 @@
     <t>I've never before written any online review, but this hotel was awful. Rooms were very small, excessive noise (voices right outside your door - creepy), and train blowing its whistle throughout the night. We were staying from out of town due to a funeral, and I had elderly family members with me. They could not sleep or move about the room easily, which I told to the clerk and assistant manager.Management refused a refund for 2nd night; had to pay for it even though we left at 9:45 AM to stay at a different hotel. They would not discuss it with me at the desk, and in fact, the assistant manager kept trying to leave as if he was getting away from me. They would not give me check out paperwork, and when I tried to follow up via phone through various avenues afterward, I still had no way to get refunded for the second night due as a result of this dissatisfying experience.The General Manager refused to refund the second night. Never stay here.More</t>
   </si>
   <si>
+    <t>Ewindsor11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r190091567-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1329,6 +1482,9 @@
     <t>This was a clean room and close to A T &amp; T Stadium and Six Flags. The staff was very helpful especially the two young ladies at the front desk. Galina, works on the day shift,  I didn't get the name of the young lady on the evening shift, but both were able to answer all my questions. I enjoyed the complementry hot breakfast. I will stay again.More</t>
   </si>
   <si>
+    <t>TheVans1991</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r190056610-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1344,6 +1500,9 @@
     <t>Very clean, excellent price.  Freindly help and easy walk to stadium.  Walk was a little dark so if you are along i would suggest a cab.  if you are expecting luxury this is not the place but if you expect super clean rooms at a very decent price, this is the place.More</t>
   </si>
   <si>
+    <t>CreatingMemories2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r189664498-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1368,6 +1527,9 @@
     <t>Stayed while attending the Cotton Bowl and found a great place. Although the room is somewhat small, everything was clean.  The facilities are updated inside and out. A small breakfast was provided and the coffee was really good. I definitely would stay again! More</t>
   </si>
   <si>
+    <t>THoward725</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186787247-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1395,6 +1557,9 @@
     <t>My husband &amp; I were visiting for the weekend due to a wedding. Upon arrival, checking in at the front desk, we were met by the most friendliness &amp; knowledgeable desk clerk...Galina Jennifer Brewer! Not only was Galina friendly, she was also so very helpful. We had no ideal where to go &amp; what else to do while we were in town. Galina directed us to some very fun &amp; adventurous attractions. Breakfast was always ready &amp; nice. Our time in town was very short but it was truly a pleasure meeting Galina. Thank you for making our 1st time visit a nice one!More</t>
   </si>
   <si>
+    <t>Matthew D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186345638-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1419,6 +1584,9 @@
     <t>Stayed a couple nights to go to the game at AT&amp;T. Room was small with two twins but worked fine. Breakfast was acceptable and they kept it well stocked, which I've seen other places slack on. Location was great for game and would be for six flags or the rangers as well. Was a walk to the game but not bad. We were on foot and finding a grocery store was tough other than Walmart. There are a few nice bars close, if I had the need I'd stay again.More</t>
   </si>
   <si>
+    <t>countrymusicnut</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r186267935-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1443,6 +1611,9 @@
     <t>I enjoyed the fact there was a coffee pot in the room. I also liked there was a computer in the lobby for guests. I stayed at the same place before when it was a Motel 6. You had to go the lobby to get coffee and Wi-Fi was in the room, but you have to pay extra for it.More</t>
   </si>
   <si>
+    <t>Gleeray</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r183424695-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1467,6 +1638,9 @@
     <t>Amazing staff, full breakfast, clean room, great location from sport stadiums and six flags. Free newspaper, full breakfast, wifi, pool (near lobby), express check in! The staff went beyond to welcome us even, if our room wasn't ready @ 9am! Check in is @ 3pm. We were even introduced to the choice enrollment programs they have which I will be putting to use since the quality of our stay was definitely worth our money. The lady at the desk was very friendly and helpful in the morning. Stay here, if you're watching any sporting event or taking the kids to six flags!More</t>
   </si>
   <si>
+    <t>Andijoanch</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r183080038-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1491,6 +1665,9 @@
     <t>This is the old Motel 6. They remodeled it very nice. Checked in Friday night and desk clerk was very nice. Had to make a complaint call and they took care of it right away. We stayed til Sunday was a great stay and staff was very friendly. Great price and locationMore</t>
   </si>
   <si>
+    <t>JeanetteCarroll</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r182334736-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1518,6 +1695,9 @@
     <t>I took my adult nephew who has special needs on a trip to celebrate his birthday.  He requires a roll in shower (not possible to get into a tub) and we took extra special care to achieve this situation. We even spoke to the registration clerk at this location and she stated what we needed to do to satisfy our needs.  We arrived to find a very nice place, large suite room, comfortable bed, clean, well maintained, friendly personal, wonderful breakfast, and great location.......still did not meet our needs.  If I were to come to the Arlington and Dallas area with no handicap needs I would definitely here. Great place for the money.More</t>
   </si>
   <si>
+    <t>Jose C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r176598698-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1545,6 +1725,9 @@
     <t>Stayed here for one night so that we would go to Six Flags, the location is perfect and the hotel provide a Free Breakfast in morning it was great nice and clean lobby with amazing staff. Lovely pool area, nice and quiet . Rooms are clean and spacious with a comfortable bed. The staff are friendly and helpful. Would definitely stay here again.More</t>
   </si>
   <si>
+    <t>Tomcat90657</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r174676501-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
   </si>
   <si>
@@ -1561,6 +1744,9 @@
   </si>
   <si>
     <t>Enjoyed stay at this hotel as the rooms were very clean and the bed was super!enjoyed the pool as it was super nice on hot day!the convience of location of this hotel was reason i stayed as i went to cowboys game only 2 miles away.Will stay next time in town for a game. More</t>
+  </si>
+  <si>
+    <t>10197701</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g30183-d4451261-r170881705-Days_Inn_Suites_by_Wyndham_Arlington_Near_Six_Flags-Arlington_Texas.html</t>
@@ -2100,43 +2286,47 @@
       <c r="A2" t="n">
         <v>6546</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>174026</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2150,50 +2340,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>6546</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="L3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2207,50 +2401,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>6546</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>174027</v>
+      </c>
+      <c r="C4" t="s">
+        <v>65</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="J4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="L4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2268,50 +2466,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>6546</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>174028</v>
+      </c>
+      <c r="C5" t="s">
+        <v>72</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="L5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -2325,50 +2527,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>6546</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>174029</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O6" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2382,50 +2588,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>6546</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>174030</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="O7" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2439,50 +2649,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>6546</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>174031</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="J8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="L8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2500,50 +2714,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>6546</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>174032</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="n">
@@ -2561,50 +2779,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>6546</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>2789</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -2624,50 +2846,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>6546</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>174033</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="J11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="L11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2681,50 +2907,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>6546</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>174034</v>
+      </c>
+      <c r="C12" t="s">
+        <v>120</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="J12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="K12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="L12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="O12" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2738,41 +2968,45 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>6546</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>174035</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="J13" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="K13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
@@ -2791,50 +3025,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>6546</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>19551</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>137</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2848,50 +3086,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>6546</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>174036</v>
+      </c>
+      <c r="C15" t="s">
+        <v>141</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>128</v>
+        <v>142</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="J15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="K15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="L15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2911,50 +3153,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>6546</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>174037</v>
+      </c>
+      <c r="C16" t="s">
+        <v>147</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="J16" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="K16" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="L16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="n">
@@ -2974,50 +3220,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>6546</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>174038</v>
+      </c>
+      <c r="C17" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>140</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="J17" t="s">
-        <v>142</v>
+        <v>158</v>
       </c>
       <c r="K17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="L17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O17" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3033,56 +3283,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>6546</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>174039</v>
+      </c>
+      <c r="C18" t="s">
+        <v>164</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="J18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="K18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="L18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3094,56 +3348,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X18" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>6546</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>174040</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="O19" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3161,56 +3419,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>6546</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>174041</v>
+      </c>
+      <c r="C20" t="s">
+        <v>178</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="J20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="K20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O20" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -3228,56 +3490,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="X20" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="Y20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>6546</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>3262</v>
+      </c>
+      <c r="C21" t="s">
+        <v>186</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>167</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="J21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="K21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="L21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="M21" t="n">
         <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="O21" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3293,56 +3559,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="X21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="Y21" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>6546</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>174042</v>
+      </c>
+      <c r="C22" t="s">
+        <v>196</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="J22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="K22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="L22" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3354,56 +3624,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="X22" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="Y22" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>6546</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>174043</v>
+      </c>
+      <c r="C23" t="s">
+        <v>205</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="J23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="K23" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="L23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="O23" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3417,50 +3691,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>6546</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>174044</v>
+      </c>
+      <c r="C24" t="s">
+        <v>211</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="J24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="K24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="L24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="M24" t="n">
         <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>194</v>
+        <v>217</v>
       </c>
       <c r="O24" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3480,50 +3758,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>6546</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>174045</v>
+      </c>
+      <c r="C25" t="s">
+        <v>218</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="J25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="K25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
       <c r="L25" t="s">
-        <v>199</v>
+        <v>223</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3537,50 +3819,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>6546</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>16823</v>
+      </c>
+      <c r="C26" t="s">
+        <v>226</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="K26" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="L26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="M26" t="n">
         <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="O26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P26" t="n">
         <v>5</v>
@@ -3598,50 +3884,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>6546</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>174046</v>
+      </c>
+      <c r="C27" t="s">
+        <v>232</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="J27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="K27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="L27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="O27" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="n">
@@ -3661,50 +3951,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>6546</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>30878</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="O28" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3722,50 +4016,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>6546</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>174047</v>
+      </c>
+      <c r="C29" t="s">
+        <v>246</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>219</v>
+        <v>247</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>220</v>
+        <v>248</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
+        <v>249</v>
       </c>
       <c r="K29" t="s">
-        <v>222</v>
+        <v>250</v>
       </c>
       <c r="L29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O29" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P29" t="n">
         <v>4</v>
@@ -3783,56 +4081,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="X29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="Y29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>6546</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>174048</v>
+      </c>
+      <c r="C30" t="s">
+        <v>256</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="J30" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="L30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="O30" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -3848,56 +4150,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="X30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="Y30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>6546</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>174049</v>
+      </c>
+      <c r="C31" t="s">
+        <v>265</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="J31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="K31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="L31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
@@ -3909,56 +4215,60 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="X31" t="s">
-        <v>243</v>
+        <v>273</v>
       </c>
       <c r="Y31" t="s">
-        <v>244</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>6546</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>44968</v>
+      </c>
+      <c r="C32" t="s">
+        <v>275</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="J32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="K32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="L32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P32" t="s"/>
       <c r="Q32" t="s"/>
@@ -3970,56 +4280,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X32" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y32" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>6546</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>174050</v>
+      </c>
+      <c r="C33" t="s">
+        <v>284</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="J33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
       <c r="K33" t="s">
-        <v>256</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>257</v>
+        <v>289</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4031,56 +4345,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>250</v>
+        <v>281</v>
       </c>
       <c r="X33" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="Y33" t="s">
-        <v>258</v>
+        <v>290</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>6546</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>174051</v>
+      </c>
+      <c r="C34" t="s">
+        <v>291</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="J34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="K34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
       <c r="L34" t="s">
-        <v>263</v>
+        <v>296</v>
       </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
       <c r="N34" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O34" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4092,56 +4410,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>265</v>
+        <v>298</v>
       </c>
       <c r="X34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="Y34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>6546</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>7527</v>
+      </c>
+      <c r="C35" t="s">
+        <v>301</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
       <c r="J35" t="s">
-        <v>270</v>
+        <v>304</v>
       </c>
       <c r="K35" t="s">
-        <v>271</v>
+        <v>305</v>
       </c>
       <c r="L35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="O35" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4159,56 +4481,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="X35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="Y35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>6546</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>174052</v>
+      </c>
+      <c r="C36" t="s">
+        <v>311</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>278</v>
+        <v>313</v>
       </c>
       <c r="J36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="K36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="L36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
       </c>
       <c r="N36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="O36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="n">
@@ -4226,56 +4552,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="X36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="Y36" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>6546</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>168426</v>
+      </c>
+      <c r="C37" t="s">
+        <v>321</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="J37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="K37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="L37" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="O37" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4293,56 +4623,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="X37" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="Y37" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>6546</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>174053</v>
+      </c>
+      <c r="C38" t="s">
+        <v>331</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>295</v>
+        <v>332</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>296</v>
+        <v>333</v>
       </c>
       <c r="J38" t="s">
-        <v>297</v>
+        <v>334</v>
       </c>
       <c r="K38" t="s">
-        <v>298</v>
+        <v>335</v>
       </c>
       <c r="L38" t="s">
-        <v>299</v>
+        <v>336</v>
       </c>
       <c r="M38" t="n">
         <v>3</v>
       </c>
       <c r="N38" t="s">
-        <v>300</v>
+        <v>337</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4358,56 +4692,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="X38" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="Y38" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>6546</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>174036</v>
+      </c>
+      <c r="C39" t="s">
+        <v>147</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="J39" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="K39" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="L39" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="O39" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="n">
@@ -4423,56 +4761,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="X39" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="Y39" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>6546</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>174054</v>
+      </c>
+      <c r="C40" t="s">
+        <v>350</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>313</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>314</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>315</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>316</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>317</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
         <v>3</v>
       </c>
       <c r="N40" t="s">
-        <v>318</v>
+        <v>356</v>
       </c>
       <c r="O40" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P40" t="s"/>
       <c r="Q40" t="n">
@@ -4490,56 +4832,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>319</v>
+        <v>357</v>
       </c>
       <c r="X40" t="s">
-        <v>320</v>
+        <v>358</v>
       </c>
       <c r="Y40" t="s">
-        <v>321</v>
+        <v>359</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>6546</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C41" t="s">
+        <v>360</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="J41" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
       <c r="K41" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="L41" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="M41" t="n">
         <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="O41" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4555,56 +4901,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="X41" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="Y41" t="s">
-        <v>330</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>6546</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>174055</v>
+      </c>
+      <c r="C42" t="s">
+        <v>370</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="J42" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="K42" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="L42" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O42" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P42" t="n">
         <v>5</v>
@@ -4622,56 +4972,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="X42" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="Y42" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>6546</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>29097</v>
+      </c>
+      <c r="C43" t="s">
+        <v>380</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>340</v>
+        <v>381</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>341</v>
+        <v>382</v>
       </c>
       <c r="J43" t="s">
-        <v>342</v>
+        <v>383</v>
       </c>
       <c r="K43" t="s">
-        <v>343</v>
+        <v>384</v>
       </c>
       <c r="L43" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="O43" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P43" t="n">
         <v>5</v>
@@ -4687,56 +5041,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>345</v>
+        <v>386</v>
       </c>
       <c r="X43" t="s">
-        <v>346</v>
+        <v>387</v>
       </c>
       <c r="Y43" t="s">
-        <v>347</v>
+        <v>388</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>6546</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>25599</v>
+      </c>
+      <c r="C44" t="s">
+        <v>389</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>348</v>
+        <v>390</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>349</v>
+        <v>391</v>
       </c>
       <c r="J44" t="s">
-        <v>350</v>
+        <v>392</v>
       </c>
       <c r="K44" t="s">
-        <v>351</v>
+        <v>393</v>
       </c>
       <c r="L44" t="s">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="M44" t="n">
         <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O44" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4754,56 +5112,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>353</v>
+        <v>395</v>
       </c>
       <c r="X44" t="s">
-        <v>354</v>
+        <v>396</v>
       </c>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>397</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>6546</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>23215</v>
+      </c>
+      <c r="C45" t="s">
+        <v>398</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>399</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>400</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>401</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>402</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>403</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O45" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P45" t="n">
         <v>2</v>
@@ -4821,56 +5183,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="X45" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="Y45" t="s">
-        <v>363</v>
+        <v>406</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>6546</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>11315</v>
+      </c>
+      <c r="C46" t="s">
+        <v>407</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>364</v>
+        <v>408</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="J46" t="s">
-        <v>366</v>
+        <v>410</v>
       </c>
       <c r="K46" t="s">
-        <v>367</v>
+        <v>411</v>
       </c>
       <c r="L46" t="s">
-        <v>368</v>
+        <v>412</v>
       </c>
       <c r="M46" t="n">
         <v>2</v>
       </c>
       <c r="N46" t="s">
-        <v>264</v>
+        <v>297</v>
       </c>
       <c r="O46" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4888,56 +5254,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>361</v>
+        <v>404</v>
       </c>
       <c r="X46" t="s">
-        <v>362</v>
+        <v>405</v>
       </c>
       <c r="Y46" t="s">
-        <v>369</v>
+        <v>413</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>6546</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>174056</v>
+      </c>
+      <c r="C47" t="s">
+        <v>414</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>370</v>
+        <v>415</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>371</v>
+        <v>416</v>
       </c>
       <c r="J47" t="s">
-        <v>372</v>
+        <v>417</v>
       </c>
       <c r="K47" t="s">
-        <v>373</v>
+        <v>418</v>
       </c>
       <c r="L47" t="s">
-        <v>374</v>
+        <v>419</v>
       </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
       <c r="N47" t="s">
-        <v>375</v>
+        <v>420</v>
       </c>
       <c r="O47" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -4959,56 +5329,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="X47" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="Y47" t="s">
-        <v>378</v>
+        <v>423</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>6546</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>174057</v>
+      </c>
+      <c r="C48" t="s">
+        <v>424</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>425</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>380</v>
+        <v>426</v>
       </c>
       <c r="J48" t="s">
-        <v>381</v>
+        <v>427</v>
       </c>
       <c r="K48" t="s">
-        <v>382</v>
+        <v>428</v>
       </c>
       <c r="L48" t="s">
-        <v>383</v>
+        <v>429</v>
       </c>
       <c r="M48" t="n">
         <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P48" t="n">
         <v>4</v>
@@ -5030,56 +5404,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>376</v>
+        <v>421</v>
       </c>
       <c r="X48" t="s">
-        <v>377</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s">
-        <v>385</v>
+        <v>431</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>6546</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>24747</v>
+      </c>
+      <c r="C49" t="s">
+        <v>432</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>386</v>
+        <v>433</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>387</v>
+        <v>434</v>
       </c>
       <c r="J49" t="s">
-        <v>388</v>
+        <v>435</v>
       </c>
       <c r="K49" t="s">
-        <v>389</v>
+        <v>436</v>
       </c>
       <c r="L49" t="s">
-        <v>390</v>
+        <v>437</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>384</v>
+        <v>430</v>
       </c>
       <c r="O49" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P49" t="n">
         <v>3</v>
@@ -5101,47 +5479,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>391</v>
+        <v>438</v>
       </c>
       <c r="X49" t="s">
-        <v>392</v>
+        <v>439</v>
       </c>
       <c r="Y49" t="s">
-        <v>393</v>
+        <v>440</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>6546</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>174058</v>
+      </c>
+      <c r="C50" t="s">
+        <v>441</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>394</v>
+        <v>442</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="J50" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="K50" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="L50" t="s">
-        <v>398</v>
+        <v>446</v>
       </c>
       <c r="M50" t="n">
         <v>3</v>
@@ -5168,56 +5550,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="X50" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Y50" t="s">
-        <v>401</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>6546</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>174059</v>
+      </c>
+      <c r="C51" t="s">
+        <v>450</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>402</v>
+        <v>451</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>403</v>
+        <v>452</v>
       </c>
       <c r="J51" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K51" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="L51" t="s">
-        <v>406</v>
+        <v>455</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="O51" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5229,56 +5615,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>408</v>
+        <v>457</v>
       </c>
       <c r="X51" t="s">
-        <v>409</v>
+        <v>458</v>
       </c>
       <c r="Y51" t="s">
-        <v>410</v>
+        <v>459</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>6546</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>174060</v>
+      </c>
+      <c r="C52" t="s">
+        <v>460</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>411</v>
+        <v>461</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>412</v>
+        <v>462</v>
       </c>
       <c r="J52" t="s">
-        <v>404</v>
+        <v>453</v>
       </c>
       <c r="K52" t="s">
-        <v>413</v>
+        <v>463</v>
       </c>
       <c r="L52" t="s">
-        <v>414</v>
+        <v>464</v>
       </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="O52" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P52" t="s"/>
       <c r="Q52" t="n">
@@ -5298,56 +5688,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>399</v>
+        <v>447</v>
       </c>
       <c r="X52" t="s">
-        <v>400</v>
+        <v>448</v>
       </c>
       <c r="Y52" t="s">
-        <v>415</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>6546</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>174061</v>
+      </c>
+      <c r="C53" t="s">
+        <v>466</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>416</v>
+        <v>467</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>417</v>
+        <v>468</v>
       </c>
       <c r="J53" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="K53" t="s">
-        <v>419</v>
+        <v>470</v>
       </c>
       <c r="L53" t="s">
-        <v>420</v>
+        <v>471</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O53" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P53" t="n">
         <v>4</v>
@@ -5369,56 +5763,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X53" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y53" t="s">
-        <v>424</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>6546</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>3860</v>
+      </c>
+      <c r="C54" t="s">
+        <v>476</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="J54" t="s">
-        <v>418</v>
+        <v>469</v>
       </c>
       <c r="K54" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="L54" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>421</v>
+        <v>472</v>
       </c>
       <c r="O54" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P54" t="n">
         <v>5</v>
@@ -5440,47 +5838,51 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>422</v>
+        <v>473</v>
       </c>
       <c r="X54" t="s">
-        <v>423</v>
+        <v>474</v>
       </c>
       <c r="Y54" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>6546</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>174062</v>
+      </c>
+      <c r="C55" t="s">
+        <v>482</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>430</v>
+        <v>483</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>431</v>
+        <v>484</v>
       </c>
       <c r="J55" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="K55" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="L55" t="s">
-        <v>434</v>
+        <v>487</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
@@ -5507,56 +5909,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>435</v>
+        <v>488</v>
       </c>
       <c r="X55" t="s">
-        <v>436</v>
+        <v>489</v>
       </c>
       <c r="Y55" t="s">
-        <v>437</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>6546</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>174063</v>
+      </c>
+      <c r="C56" t="s">
+        <v>491</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>438</v>
+        <v>492</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>439</v>
+        <v>493</v>
       </c>
       <c r="J56" t="s">
-        <v>440</v>
+        <v>494</v>
       </c>
       <c r="K56" t="s">
-        <v>441</v>
+        <v>495</v>
       </c>
       <c r="L56" t="s">
-        <v>442</v>
+        <v>496</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="O56" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P56" t="n">
         <v>4</v>
@@ -5578,56 +5984,60 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>444</v>
+        <v>498</v>
       </c>
       <c r="X56" t="s">
-        <v>445</v>
+        <v>499</v>
       </c>
       <c r="Y56" t="s">
-        <v>446</v>
+        <v>500</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>6546</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>3884</v>
+      </c>
+      <c r="C57" t="s">
+        <v>501</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="J57" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="K57" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="L57" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="M57" t="n">
         <v>5</v>
       </c>
       <c r="N57" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="O57" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
@@ -5639,56 +6049,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="X57" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="Y57" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>6546</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>174064</v>
+      </c>
+      <c r="C58" t="s">
+        <v>510</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>455</v>
+        <v>511</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>456</v>
+        <v>512</v>
       </c>
       <c r="J58" t="s">
-        <v>457</v>
+        <v>513</v>
       </c>
       <c r="K58" t="s">
-        <v>458</v>
+        <v>514</v>
       </c>
       <c r="L58" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
       </c>
       <c r="N58" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="O58" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P58" t="n">
         <v>5</v>
@@ -5710,47 +6124,51 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>460</v>
+        <v>516</v>
       </c>
       <c r="X58" t="s">
-        <v>461</v>
+        <v>517</v>
       </c>
       <c r="Y58" t="s">
-        <v>462</v>
+        <v>518</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>6546</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>174065</v>
+      </c>
+      <c r="C59" t="s">
+        <v>519</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="J59" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="K59" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="L59" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
@@ -5777,47 +6195,51 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="X59" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="Y59" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>6546</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>174066</v>
+      </c>
+      <c r="C60" t="s">
+        <v>528</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>471</v>
+        <v>529</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>472</v>
+        <v>530</v>
       </c>
       <c r="J60" t="s">
-        <v>473</v>
+        <v>531</v>
       </c>
       <c r="K60" t="s">
-        <v>474</v>
+        <v>532</v>
       </c>
       <c r="L60" t="s">
-        <v>475</v>
+        <v>533</v>
       </c>
       <c r="M60" t="n">
         <v>5</v>
@@ -5844,56 +6266,60 @@
         <v>0</v>
       </c>
       <c r="W60" t="s">
-        <v>476</v>
+        <v>534</v>
       </c>
       <c r="X60" t="s">
-        <v>477</v>
+        <v>535</v>
       </c>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>536</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>6546</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>174067</v>
+      </c>
+      <c r="C61" t="s">
+        <v>537</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>479</v>
+        <v>538</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>539</v>
       </c>
       <c r="J61" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="K61" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="M61" t="n">
         <v>4</v>
       </c>
       <c r="N61" t="s">
-        <v>484</v>
+        <v>543</v>
       </c>
       <c r="O61" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P61" t="n">
         <v>5</v>
@@ -5915,56 +6341,60 @@
         <v>0</v>
       </c>
       <c r="W61" t="s">
-        <v>485</v>
+        <v>544</v>
       </c>
       <c r="X61" t="s">
-        <v>486</v>
+        <v>545</v>
       </c>
       <c r="Y61" t="s">
-        <v>487</v>
+        <v>546</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>6546</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>174068</v>
+      </c>
+      <c r="C62" t="s">
+        <v>547</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>488</v>
+        <v>548</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>489</v>
+        <v>549</v>
       </c>
       <c r="J62" t="s">
-        <v>490</v>
+        <v>550</v>
       </c>
       <c r="K62" t="s">
-        <v>491</v>
+        <v>551</v>
       </c>
       <c r="L62" t="s">
-        <v>492</v>
+        <v>552</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>493</v>
+        <v>553</v>
       </c>
       <c r="O62" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -5986,47 +6416,51 @@
         <v>0</v>
       </c>
       <c r="W62" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="X62" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="Y62" t="s">
-        <v>496</v>
+        <v>556</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>6546</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>174069</v>
+      </c>
+      <c r="C63" t="s">
+        <v>557</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>497</v>
+        <v>558</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>498</v>
+        <v>559</v>
       </c>
       <c r="J63" t="s">
-        <v>499</v>
+        <v>560</v>
       </c>
       <c r="K63" t="s">
-        <v>500</v>
+        <v>561</v>
       </c>
       <c r="L63" t="s">
-        <v>501</v>
+        <v>562</v>
       </c>
       <c r="M63" t="n">
         <v>5</v>
@@ -6053,56 +6487,60 @@
         <v>0</v>
       </c>
       <c r="W63" t="s">
-        <v>494</v>
+        <v>554</v>
       </c>
       <c r="X63" t="s">
-        <v>495</v>
+        <v>555</v>
       </c>
       <c r="Y63" t="s">
-        <v>502</v>
+        <v>563</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>6546</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>174070</v>
+      </c>
+      <c r="C64" t="s">
+        <v>564</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>504</v>
+        <v>566</v>
       </c>
       <c r="J64" t="s">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="K64" t="s">
-        <v>506</v>
+        <v>568</v>
       </c>
       <c r="L64" t="s">
-        <v>507</v>
+        <v>569</v>
       </c>
       <c r="M64" t="n">
         <v>3</v>
       </c>
       <c r="N64" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="O64" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6124,13 +6562,13 @@
         <v>0</v>
       </c>
       <c r="W64" t="s">
-        <v>509</v>
+        <v>571</v>
       </c>
       <c r="X64" t="s">
-        <v>510</v>
+        <v>572</v>
       </c>
       <c r="Y64" t="s">
-        <v>511</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>
